--- a/TPC/ESTAT1920 TP POR.xlsx
+++ b/TPC/ESTAT1920 TP POR.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
   <si>
     <t xml:space="preserve">TRABALHO PRÁTICO de ESTAT:2019/20</t>
   </si>
@@ -138,6 +138,12 @@
     <t xml:space="preserve">Fi (B)</t>
   </si>
   <si>
+    <t xml:space="preserve">eiA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q0</t>
+  </si>
+  <si>
     <t xml:space="preserve">[5,10[</t>
   </si>
   <si>
@@ -209,6 +215,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ffi(B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eiB</t>
   </si>
   <si>
     <t xml:space="preserve">Média</t>
@@ -498,7 +507,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -655,6 +664,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -673,6 +686,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -716,6 +733,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -811,7 +832,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1122,11 +1143,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="28448698"/>
-        <c:axId val="12304320"/>
+        <c:axId val="78456602"/>
+        <c:axId val="45014932"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="28448698"/>
+        <c:axId val="78456602"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1182,14 +1203,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12304320"/>
+        <c:crossAx val="45014932"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="12304320"/>
+        <c:axId val="45014932"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1254,7 +1275,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28448698"/>
+        <c:crossAx val="78456602"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1301,7 +1322,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1379,25 +1400,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7.5000</c:v>
+                  <c:v>7,5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.5000</c:v>
+                  <c:v>12,5000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.5000</c:v>
+                  <c:v>17,5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.5000</c:v>
+                  <c:v>22,5000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.5000</c:v>
+                  <c:v>27,5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.5000</c:v>
+                  <c:v>32,5000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.5000</c:v>
+                  <c:v>37,5000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1472,25 +1493,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7.5000</c:v>
+                  <c:v>7,5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.5000</c:v>
+                  <c:v>12,5000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.5000</c:v>
+                  <c:v>17,5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.5000</c:v>
+                  <c:v>22,5000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.5000</c:v>
+                  <c:v>27,5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.5000</c:v>
+                  <c:v>32,5000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.5000</c:v>
+                  <c:v>37,5000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1528,11 +1549,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="39121872"/>
-        <c:axId val="40738842"/>
+        <c:axId val="95708023"/>
+        <c:axId val="14328205"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39121872"/>
+        <c:axId val="95708023"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1588,14 +1609,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40738842"/>
+        <c:crossAx val="14328205"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40738842"/>
+        <c:axId val="14328205"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1660,7 +1681,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39121872"/>
+        <c:crossAx val="95708023"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1714,13 +1735,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>17280</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>350280</xdr:colOff>
+      <xdr:colOff>349920</xdr:colOff>
       <xdr:row>178</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1728,8 +1749,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3895200" y="28337760"/>
-        <a:ext cx="6940800" cy="3238920"/>
+        <a:off x="4906080" y="28337760"/>
+        <a:ext cx="8661960" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1744,13 +1765,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>6480</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>144720</xdr:rowOff>
+      <xdr:rowOff>149040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>349920</xdr:colOff>
+      <xdr:colOff>349560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1758,8 +1779,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3282120" y="5644800"/>
-        <a:ext cx="6951240" cy="3238920"/>
+        <a:off x="4136400" y="5644800"/>
+        <a:ext cx="8672400" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1792,8 +1813,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="4.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="4.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="0" width="8.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.53"/>
   </cols>
@@ -4938,15 +4959,15 @@
   </sheetPr>
   <dimension ref="A1:X237"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C132" activeCellId="0" sqref="C132"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.1"/>
@@ -4976,7 +4997,7 @@
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="W1" s="39"/>
       <c r="X1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4988,33 +5009,33 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="39"/>
+      <c r="H2" s="40"/>
       <c r="J2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="10"/>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41" t="s">
+      <c r="M2" s="41"/>
+      <c r="N2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41" t="s">
+      <c r="O2" s="42"/>
+      <c r="P2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="40" t="s">
+      <c r="Q2" s="42"/>
+      <c r="R2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40" t="s">
+      <c r="S2" s="41"/>
+      <c r="T2" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="41"/>
       <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
+      <c r="W2" s="39"/>
       <c r="X2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5022,13 +5043,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="44" t="s">
         <v>29</v>
       </c>
       <c r="J3" s="11" t="s">
@@ -5049,23 +5070,29 @@
       <c r="O3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="44" t="s">
+      <c r="P3" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="44" t="s">
+      <c r="Q3" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="44" t="s">
+      <c r="R3" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="S3" s="44" t="s">
+      <c r="S3" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="44" t="s">
+      <c r="T3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="44" t="s">
+      <c r="U3" s="45" t="s">
         <v>10</v>
+      </c>
+      <c r="V3" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="46" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5075,909 +5102,925 @@
       <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="42" t="n">
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="47" t="n">
+      <c r="H4" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="49" t="n">
         <f aca="false">5+(10-5)/2</f>
         <v>7.5</v>
       </c>
-      <c r="J4" s="48" t="n">
+      <c r="J4" s="50" t="n">
         <f aca="false">COUNTIFS($B$5:$B$124,"&gt;=5",$B$5:$B$124,"&lt;10")</f>
         <v>8</v>
       </c>
-      <c r="K4" s="48" t="n">
+      <c r="K4" s="50" t="n">
         <f aca="false">COUNTIFS($C$5:$C$124,"&gt;=5",$C$5:$C$124,"&lt;10")</f>
         <v>1</v>
       </c>
-      <c r="L4" s="48" t="n">
+      <c r="L4" s="50" t="n">
         <f aca="false">I4*J4</f>
         <v>60</v>
       </c>
-      <c r="M4" s="48" t="n">
+      <c r="M4" s="50" t="n">
         <f aca="false">I4*K4</f>
         <v>7.5</v>
       </c>
-      <c r="N4" s="49" t="n">
+      <c r="N4" s="51" t="n">
         <f aca="false">J4/G4</f>
         <v>2</v>
       </c>
-      <c r="O4" s="49" t="n">
+      <c r="O4" s="51" t="n">
         <f aca="false">K4/G4</f>
         <v>0.25</v>
       </c>
-      <c r="P4" s="49" t="n">
+      <c r="P4" s="51" t="n">
         <f aca="false">J4/$J$11</f>
         <v>0.0666666666666667</v>
       </c>
-      <c r="Q4" s="49" t="n">
+      <c r="Q4" s="51" t="n">
         <f aca="false">K4/$K$11</f>
         <v>0.00833333333333333</v>
       </c>
-      <c r="R4" s="50" t="n">
+      <c r="R4" s="52" t="n">
         <f aca="false">$P$4</f>
         <v>0.0666666666666667</v>
       </c>
-      <c r="S4" s="50" t="n">
+      <c r="S4" s="52" t="n">
         <f aca="false">$Q$4</f>
         <v>0.00833333333333333</v>
       </c>
-      <c r="T4" s="48" t="n">
+      <c r="T4" s="50" t="n">
         <f aca="false">(I4-$I$15)^2*J4</f>
         <v>1258.34722222223</v>
       </c>
-      <c r="U4" s="48" t="n">
+      <c r="U4" s="50" t="n">
         <f aca="false">(I4-$J$15)^2*K4</f>
         <v>197.168402777779</v>
       </c>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="51" t="n">
+      <c r="A5" s="53" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="48" t="n">
+      <c r="B5" s="50" t="n">
         <f aca="false">'Id. + dados'!I81</f>
         <v>5.11234</v>
       </c>
-      <c r="C5" s="48" t="n">
+      <c r="C5" s="50" t="n">
         <f aca="false">'Id. + dados'!J64</f>
         <v>9.12365</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="42" t="n">
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="H5" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="53" t="n">
+      <c r="H5" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="55" t="n">
         <f aca="false">10+(15-10)/2</f>
         <v>12.5</v>
       </c>
-      <c r="J5" s="48" t="n">
+      <c r="J5" s="50" t="n">
         <f aca="false">COUNTIFS($B$5:$B$124,"&gt;=10",$B$5:$B$124,"&lt;15")</f>
         <v>16</v>
       </c>
-      <c r="K5" s="48" t="n">
+      <c r="K5" s="50" t="n">
         <f aca="false">COUNTIFS($C$5:$C$124,"&gt;=10",$C$5:$C$124,"&lt;15")</f>
         <v>18</v>
       </c>
-      <c r="L5" s="48" t="n">
+      <c r="L5" s="50" t="n">
         <f aca="false">I5*J5</f>
         <v>200</v>
       </c>
-      <c r="M5" s="48" t="n">
+      <c r="M5" s="50" t="n">
         <f aca="false">I5*K5</f>
         <v>225</v>
       </c>
-      <c r="N5" s="49" t="n">
+      <c r="N5" s="51" t="n">
         <f aca="false">J5/G5</f>
         <v>4</v>
       </c>
-      <c r="O5" s="49" t="n">
+      <c r="O5" s="51" t="n">
         <f aca="false">K5/G5</f>
         <v>4.5</v>
       </c>
-      <c r="P5" s="49" t="n">
+      <c r="P5" s="51" t="n">
         <f aca="false">J5/$J$11</f>
         <v>0.133333333333333</v>
       </c>
-      <c r="Q5" s="49" t="n">
+      <c r="Q5" s="51" t="n">
         <f aca="false">K5/$K$11</f>
         <v>0.15</v>
       </c>
-      <c r="R5" s="50" t="n">
+      <c r="R5" s="52" t="n">
         <f aca="false">R4+P5</f>
         <v>0.2</v>
       </c>
-      <c r="S5" s="50" t="n">
+      <c r="S5" s="52" t="n">
         <f aca="false">Q5+S4</f>
         <v>0.158333333333333</v>
       </c>
-      <c r="T5" s="48" t="n">
+      <c r="T5" s="50" t="n">
         <f aca="false">(I5-$I$15)^2*J5</f>
         <v>910.027777777786</v>
       </c>
-      <c r="U5" s="48" t="n">
+      <c r="U5" s="50" t="n">
         <f aca="false">(I5-$J$15)^2*K5</f>
         <v>1471.53125000001</v>
       </c>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="51" t="n">
+      <c r="A6" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="48" t="n">
+      <c r="B6" s="50" t="n">
         <f aca="false">'Id. + dados'!I102</f>
         <v>5.23135</v>
       </c>
-      <c r="C6" s="48" t="n">
+      <c r="C6" s="50" t="n">
         <f aca="false">'Id. + dados'!J72</f>
         <v>10.3901285616799</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="42" t="n">
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="53" t="n">
+      <c r="H6" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="55" t="n">
         <f aca="false">15+(20-15)/2</f>
         <v>17.5</v>
       </c>
-      <c r="J6" s="48" t="n">
+      <c r="J6" s="50" t="n">
         <f aca="false">COUNTIFS($B$5:$B$124,"&gt;=15",$B$5:$B$124,"&lt;20")</f>
         <v>40</v>
       </c>
-      <c r="K6" s="48" t="n">
+      <c r="K6" s="50" t="n">
         <f aca="false">COUNTIFS($C$5:$C$124,"&gt;=15",$C$5:$C$124,"&lt;20")</f>
         <v>28</v>
       </c>
-      <c r="L6" s="48" t="n">
+      <c r="L6" s="50" t="n">
         <f aca="false">I6*J6</f>
         <v>700</v>
       </c>
-      <c r="M6" s="48" t="n">
+      <c r="M6" s="50" t="n">
         <f aca="false">I6*K6</f>
         <v>490</v>
       </c>
-      <c r="N6" s="49" t="n">
+      <c r="N6" s="51" t="n">
         <f aca="false">J6/G6</f>
         <v>10</v>
       </c>
-      <c r="O6" s="49" t="n">
+      <c r="O6" s="51" t="n">
         <f aca="false">K6/G6</f>
         <v>7</v>
       </c>
-      <c r="P6" s="49" t="n">
+      <c r="P6" s="51" t="n">
         <f aca="false">J6/$J$11</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="Q6" s="49" t="n">
+      <c r="Q6" s="51" t="n">
         <f aca="false">K6/$K$11</f>
         <v>0.233333333333333</v>
       </c>
-      <c r="R6" s="50" t="n">
+      <c r="R6" s="52" t="n">
         <f aca="false">R5+P6</f>
         <v>0.533333333333333</v>
       </c>
-      <c r="S6" s="50" t="n">
+      <c r="S6" s="52" t="n">
         <f aca="false">Q6+S5</f>
         <v>0.391666666666667</v>
       </c>
-      <c r="T6" s="48" t="n">
+      <c r="T6" s="50" t="n">
         <f aca="false">(I6-$I$15)^2*J6</f>
         <v>258.402777777785</v>
       </c>
-      <c r="U6" s="48" t="n">
+      <c r="U6" s="50" t="n">
         <f aca="false">(I6-$J$15)^2*K6</f>
         <v>457.381944444452</v>
       </c>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="51" t="n">
+      <c r="A7" s="53" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="48" t="n">
+      <c r="B7" s="50" t="n">
         <f aca="false">'Id. + dados'!I64</f>
         <v>5.38836683860975</v>
       </c>
-      <c r="C7" s="48" t="n">
+      <c r="C7" s="50" t="n">
         <f aca="false">'Id. + dados'!J107</f>
         <v>10.8586087927646</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="42" t="n">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="H7" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="53" t="n">
+      <c r="H7" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="55" t="n">
         <f aca="false">20+(25-20)/2</f>
         <v>22.5</v>
       </c>
-      <c r="J7" s="48" t="n">
+      <c r="J7" s="50" t="n">
         <f aca="false">COUNTIFS($B$5:$B$124,"&gt;=20",$B$5:$B$124,"&lt;25")</f>
         <v>25</v>
       </c>
-      <c r="K7" s="48" t="n">
+      <c r="K7" s="50" t="n">
         <f aca="false">COUNTIFS($C$5:$C$124,"&gt;=20",$C$5:$C$124,"&lt;25")</f>
         <v>41</v>
       </c>
-      <c r="L7" s="48" t="n">
+      <c r="L7" s="50" t="n">
         <f aca="false">I7*J7</f>
         <v>562.5</v>
       </c>
-      <c r="M7" s="48" t="n">
+      <c r="M7" s="50" t="n">
         <f aca="false">I7*K7</f>
         <v>922.5</v>
       </c>
-      <c r="N7" s="49" t="n">
+      <c r="N7" s="51" t="n">
         <f aca="false">J7/G7</f>
         <v>6.25</v>
       </c>
-      <c r="O7" s="49" t="n">
+      <c r="O7" s="51" t="n">
         <f aca="false">K7/G7</f>
         <v>10.25</v>
       </c>
-      <c r="P7" s="49" t="n">
+      <c r="P7" s="51" t="n">
         <f aca="false">J7/$J$11</f>
         <v>0.208333333333333</v>
       </c>
-      <c r="Q7" s="49" t="n">
+      <c r="Q7" s="51" t="n">
         <f aca="false">K7/$K$11</f>
         <v>0.341666666666667</v>
       </c>
-      <c r="R7" s="50" t="n">
+      <c r="R7" s="52" t="n">
         <f aca="false">R6+P7</f>
         <v>0.741666666666667</v>
       </c>
-      <c r="S7" s="50" t="n">
+      <c r="S7" s="52" t="n">
         <f aca="false">Q7+S6</f>
         <v>0.733333333333333</v>
       </c>
-      <c r="T7" s="48" t="n">
+      <c r="T7" s="50" t="n">
         <f aca="false">(I7-$I$15)^2*J7</f>
         <v>151.08506944444</v>
       </c>
-      <c r="U7" s="48" t="n">
+      <c r="U7" s="50" t="n">
         <f aca="false">(I7-$J$15)^2*K7</f>
         <v>37.6545138888863</v>
       </c>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="51" t="n">
+      <c r="A8" s="53" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="48" t="n">
+      <c r="B8" s="50" t="n">
         <f aca="false">'Id. + dados'!I46</f>
         <v>6.24778839932971</v>
       </c>
-      <c r="C8" s="48" t="n">
+      <c r="C8" s="50" t="n">
         <f aca="false">'Id. + dados'!J82</f>
         <v>10.9028677951731</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="42" t="n">
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="H8" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="53" t="n">
+      <c r="H8" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="55" t="n">
         <f aca="false">25+(30-25)/2</f>
         <v>27.5</v>
       </c>
-      <c r="J8" s="48" t="n">
+      <c r="J8" s="50" t="n">
         <f aca="false">COUNTIFS($B$5:$B$124,"&gt;=25",$B$5:$B$124,"&lt;30")</f>
         <v>26</v>
       </c>
-      <c r="K8" s="48" t="n">
+      <c r="K8" s="50" t="n">
         <f aca="false">COUNTIFS($C$5:$C$124,"&gt;=25",$C$5:$C$124,"&lt;30")</f>
         <v>22</v>
       </c>
-      <c r="L8" s="48" t="n">
+      <c r="L8" s="50" t="n">
         <f aca="false">I8*J8</f>
         <v>715</v>
       </c>
-      <c r="M8" s="48" t="n">
+      <c r="M8" s="50" t="n">
         <f aca="false">I8*K8</f>
         <v>605</v>
       </c>
-      <c r="N8" s="49" t="n">
+      <c r="N8" s="51" t="n">
         <f aca="false">J8/G8</f>
         <v>6.5</v>
       </c>
-      <c r="O8" s="49" t="n">
+      <c r="O8" s="51" t="n">
         <f aca="false">K8/G8</f>
         <v>5.5</v>
       </c>
-      <c r="P8" s="49" t="n">
+      <c r="P8" s="51" t="n">
         <f aca="false">J8/$J$11</f>
         <v>0.216666666666667</v>
       </c>
-      <c r="Q8" s="49" t="n">
+      <c r="Q8" s="51" t="n">
         <f aca="false">K8/$K$11</f>
         <v>0.183333333333333</v>
       </c>
-      <c r="R8" s="50" t="n">
+      <c r="R8" s="52" t="n">
         <f aca="false">R7+P8</f>
         <v>0.958333333333333</v>
       </c>
-      <c r="S8" s="50" t="n">
+      <c r="S8" s="52" t="n">
         <f aca="false">Q8+S7</f>
         <v>0.916666666666667</v>
       </c>
-      <c r="T8" s="48" t="n">
+      <c r="T8" s="50" t="n">
         <f aca="false">(I8-$I$15)^2*J8</f>
         <v>1446.29513888888</v>
       </c>
-      <c r="U8" s="48" t="n">
+      <c r="U8" s="50" t="n">
         <f aca="false">(I8-$J$15)^2*K8</f>
         <v>781.038194444436</v>
       </c>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="51" t="n">
+      <c r="A9" s="53" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="48" t="n">
+      <c r="B9" s="50" t="n">
         <f aca="false">'Id. + dados'!I70</f>
         <v>8.80863319035464</v>
       </c>
-      <c r="C9" s="48" t="n">
+      <c r="C9" s="50" t="n">
         <f aca="false">'Id. + dados'!J95</f>
         <v>11.7045079223777</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="42" t="n">
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="H9" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="53" t="n">
+      <c r="H9" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="55" t="n">
         <f aca="false">30+(35-30)/2</f>
         <v>32.5</v>
       </c>
-      <c r="J9" s="48" t="n">
+      <c r="J9" s="50" t="n">
         <f aca="false">COUNTIFS($B$5:$B$124,"&gt;=30",$B$5:$B$124,"&lt;35")</f>
         <v>4</v>
       </c>
-      <c r="K9" s="48" t="n">
+      <c r="K9" s="50" t="n">
         <f aca="false">COUNTIFS($C$5:$C$124,"&gt;=30",$C$5:$C$124,"&lt;35")</f>
         <v>8</v>
       </c>
-      <c r="L9" s="48" t="n">
+      <c r="L9" s="50" t="n">
         <f aca="false">I9*J9</f>
         <v>130</v>
       </c>
-      <c r="M9" s="48" t="n">
+      <c r="M9" s="50" t="n">
         <f aca="false">I9*K9</f>
         <v>260</v>
       </c>
-      <c r="N9" s="49" t="n">
+      <c r="N9" s="51" t="n">
         <f aca="false">J9/G9</f>
         <v>1</v>
       </c>
-      <c r="O9" s="49" t="n">
+      <c r="O9" s="51" t="n">
         <f aca="false">K9/G9</f>
         <v>2</v>
       </c>
-      <c r="P9" s="49" t="n">
+      <c r="P9" s="51" t="n">
         <f aca="false">J9/$J$11</f>
         <v>0.0333333333333333</v>
       </c>
-      <c r="Q9" s="49" t="n">
+      <c r="Q9" s="51" t="n">
         <f aca="false">K9/$K$11</f>
         <v>0.0666666666666667</v>
       </c>
-      <c r="R9" s="50" t="n">
+      <c r="R9" s="52" t="n">
         <f aca="false">R8+P9</f>
         <v>0.991666666666667</v>
       </c>
-      <c r="S9" s="50" t="n">
+      <c r="S9" s="52" t="n">
         <f aca="false">Q9+S8</f>
         <v>0.983333333333333</v>
       </c>
-      <c r="T9" s="48" t="n">
+      <c r="T9" s="50" t="n">
         <f aca="false">(I9-$I$15)^2*J9</f>
         <v>620.840277777774</v>
       </c>
-      <c r="U9" s="48" t="n">
+      <c r="U9" s="50" t="n">
         <f aca="false">(I9-$J$15)^2*K9</f>
         <v>960.68055555555</v>
       </c>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="51" t="n">
+      <c r="A10" s="53" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="48" t="n">
+      <c r="B10" s="50" t="n">
         <f aca="false">'Id. + dados'!I6</f>
         <v>9.24649813835877</v>
       </c>
-      <c r="C10" s="48" t="n">
+      <c r="C10" s="50" t="n">
         <f aca="false">'Id. + dados'!J21</f>
         <v>11.8483806255509</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="42" t="n">
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="43" t="n">
         <v>5</v>
       </c>
-      <c r="H10" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="53" t="n">
+      <c r="H10" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="55" t="n">
         <f aca="false">35+(40-35)/2</f>
         <v>37.5</v>
       </c>
-      <c r="J10" s="48" t="n">
+      <c r="J10" s="50" t="n">
         <f aca="false">COUNTIFS($B$5:$B$124,"&gt;=35",$B$5:$B$124,"&lt;=40")</f>
         <v>1</v>
       </c>
-      <c r="K10" s="48" t="n">
+      <c r="K10" s="50" t="n">
         <f aca="false">COUNTIFS($C$5:$C$124,"&gt;=35",$C$5:$C$124,"&lt;=40")</f>
         <v>2</v>
       </c>
-      <c r="L10" s="48" t="n">
+      <c r="L10" s="50" t="n">
         <f aca="false">I10*J10</f>
         <v>37.5</v>
       </c>
-      <c r="M10" s="48" t="n">
+      <c r="M10" s="50" t="n">
         <f aca="false">I10*K10</f>
         <v>75</v>
       </c>
-      <c r="N10" s="49" t="n">
+      <c r="N10" s="51" t="n">
         <f aca="false">J10/G10</f>
         <v>0.2</v>
       </c>
-      <c r="O10" s="49" t="n">
+      <c r="O10" s="51" t="n">
         <f aca="false">K10/G10</f>
         <v>0.4</v>
       </c>
-      <c r="P10" s="49" t="n">
+      <c r="P10" s="51" t="n">
         <f aca="false">J10/$J$11</f>
         <v>0.00833333333333333</v>
       </c>
-      <c r="Q10" s="49" t="n">
+      <c r="Q10" s="51" t="n">
         <f aca="false">K10/$K$11</f>
         <v>0.0166666666666667</v>
       </c>
-      <c r="R10" s="50" t="n">
+      <c r="R10" s="52" t="n">
         <f aca="false">R9+P10</f>
         <v>1</v>
       </c>
-      <c r="S10" s="50" t="n">
+      <c r="S10" s="52" t="n">
         <f aca="false">Q10+S9</f>
         <v>1</v>
       </c>
-      <c r="T10" s="48" t="n">
+      <c r="T10" s="50" t="n">
         <f aca="false">(I10-$I$15)^2*J10</f>
         <v>304.793402777777</v>
       </c>
-      <c r="U10" s="48" t="n">
+      <c r="U10" s="50" t="n">
         <f aca="false">(I10-$J$15)^2*K10</f>
         <v>509.336805555553</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="51" t="n">
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="53" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="48" t="n">
+      <c r="B11" s="50" t="n">
         <f aca="false">'Id. + dados'!I7</f>
         <v>9.33417660007873</v>
       </c>
-      <c r="C11" s="48" t="n">
+      <c r="C11" s="50" t="n">
         <f aca="false">'Id. + dados'!J69</f>
         <v>11.9224606739032</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="48" t="n">
+        <v>47</v>
+      </c>
+      <c r="J11" s="50" t="n">
         <f aca="false">SUM(J4:J10)</f>
         <v>120</v>
       </c>
-      <c r="K11" s="48" t="n">
+      <c r="K11" s="50" t="n">
         <f aca="false">SUM(K4:K10)</f>
         <v>120</v>
       </c>
-      <c r="L11" s="48" t="n">
+      <c r="L11" s="50" t="n">
         <f aca="false">SUM(L4:L10)</f>
         <v>2405</v>
       </c>
-      <c r="M11" s="48" t="n">
+      <c r="M11" s="50" t="n">
         <f aca="false">SUM(M4:M10)</f>
         <v>2585</v>
       </c>
-      <c r="S11" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="T11" s="48" t="n">
+      <c r="S11" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="T11" s="50" t="n">
         <f aca="false">SUM($T$4:$T$10)/($J$11-1)</f>
         <v>41.5948879551821</v>
       </c>
-      <c r="U11" s="48" t="n">
+      <c r="U11" s="50" t="n">
         <f aca="false">SUM($U$4:$U$10)/($K$11-1)</f>
         <v>37.0990896358543</v>
       </c>
+      <c r="W11" s="57"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="51" t="n">
+      <c r="A12" s="53" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="48" t="n">
+      <c r="B12" s="50" t="n">
         <f aca="false">'Id. + dados'!I56</f>
         <v>9.69325577269165</v>
       </c>
-      <c r="C12" s="48" t="n">
+      <c r="C12" s="50" t="n">
         <f aca="false">'Id. + dados'!J85</f>
         <v>12.1666425314913</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="S12" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="T12" s="48" t="n">
+      <c r="S12" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="T12" s="50" t="n">
         <f aca="false">SQRT($T$11)</f>
         <v>6.44940989201199</v>
       </c>
-      <c r="U12" s="48" t="n">
+      <c r="U12" s="50" t="n">
         <f aca="false">SQRT($U$11)</f>
         <v>6.09090220212526</v>
       </c>
+      <c r="W12" s="57"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="51" t="n">
+      <c r="A13" s="53" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="48" t="n">
+      <c r="B13" s="50" t="n">
         <f aca="false">'Id. + dados'!I61</f>
         <v>10.1310022434596</v>
       </c>
-      <c r="C13" s="48" t="n">
+      <c r="C13" s="50" t="n">
         <f aca="false">'Id. + dados'!J98</f>
         <v>12.2469783034258</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="51" t="n">
+      <c r="A14" s="53" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="48" t="n">
+      <c r="B14" s="50" t="n">
         <f aca="false">'Id. + dados'!I12</f>
         <v>10.4019719933519</v>
       </c>
-      <c r="C14" s="48" t="n">
+      <c r="C14" s="50" t="n">
         <f aca="false">'Id. + dados'!J37</f>
         <v>12.8824147694087</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="51" t="n">
+      <c r="A15" s="53" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="48" t="n">
+      <c r="B15" s="50" t="n">
         <f aca="false">'Id. + dados'!I16</f>
         <v>10.8229402149983</v>
       </c>
-      <c r="C15" s="48" t="n">
+      <c r="C15" s="50" t="n">
         <f aca="false">'Id. + dados'!J43</f>
         <v>13.164034094787</v>
       </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="48" t="n">
+      <c r="I15" s="50" t="n">
         <f aca="false">SUMPRODUCT(I4:I10,P4:P10)</f>
         <v>20.0416666666667</v>
       </c>
-      <c r="J15" s="48" t="n">
+      <c r="J15" s="50" t="n">
         <f aca="false">SUMPRODUCT(I4:I10,Q4:Q10)</f>
         <v>21.5416666666667</v>
       </c>
-      <c r="O15" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="P15" s="55"/>
+      <c r="O15" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" s="58"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="51" t="n">
+      <c r="A16" s="53" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="48" t="n">
+      <c r="B16" s="50" t="n">
         <f aca="false">'Id. + dados'!I78</f>
         <v>10.9734020898776</v>
       </c>
-      <c r="C16" s="48" t="n">
+      <c r="C16" s="50" t="n">
         <f aca="false">'Id. + dados'!J9</f>
         <v>13.4096885177551</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="51" t="n">
+      <c r="A17" s="53" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="48" t="n">
+      <c r="B17" s="50" t="n">
         <f aca="false">'Id. + dados'!I79</f>
         <v>11.0294474872468</v>
       </c>
-      <c r="C17" s="48" t="n">
+      <c r="C17" s="50" t="n">
         <f aca="false">'Id. + dados'!J63</f>
         <v>13.5329467748562</v>
       </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="51" t="n">
+      <c r="A18" s="53" t="n">
         <v>14</v>
       </c>
-      <c r="B18" s="48" t="n">
+      <c r="B18" s="50" t="n">
         <f aca="false">'Id. + dados'!I103</f>
         <v>12.2408790794842</v>
       </c>
-      <c r="C18" s="48" t="n">
+      <c r="C18" s="50" t="n">
         <f aca="false">'Id. + dados'!J73</f>
         <v>13.5473315978294</v>
       </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="51" t="n">
+      <c r="A19" s="53" t="n">
         <v>15</v>
       </c>
-      <c r="B19" s="48" t="n">
+      <c r="B19" s="50" t="n">
         <f aca="false">'Id. + dados'!I106</f>
         <v>12.4148147987881</v>
       </c>
-      <c r="C19" s="48" t="n">
+      <c r="C19" s="50" t="n">
         <f aca="false">'Id. + dados'!J19</f>
         <v>13.9531180685656</v>
       </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="48" t="n">
+      <c r="I19" s="50" t="n">
         <f aca="false">SUMPRODUCT(I4:I10,J4:J10)/$J$11</f>
         <v>20.0416666666667</v>
       </c>
-      <c r="J19" s="48" t="n">
+      <c r="J19" s="50" t="n">
         <f aca="false">SUMPRODUCT(I4:I10,K4:K10)/$K$11</f>
         <v>21.5416666666667</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="51" t="n">
+      <c r="A20" s="53" t="n">
         <v>16</v>
       </c>
-      <c r="B20" s="48" t="n">
+      <c r="B20" s="50" t="n">
         <f aca="false">'Id. + dados'!I50</f>
         <v>12.8338997938432</v>
       </c>
-      <c r="C20" s="48" t="n">
+      <c r="C20" s="50" t="n">
         <f aca="false">'Id. + dados'!J39</f>
         <v>13.9547213117371</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="51" t="n">
+      <c r="A21" s="53" t="n">
         <v>17</v>
       </c>
-      <c r="B21" s="48" t="n">
+      <c r="B21" s="50" t="n">
         <f aca="false">'Id. + dados'!I19</f>
         <v>12.9377028200768</v>
       </c>
-      <c r="C21" s="48" t="n">
+      <c r="C21" s="50" t="n">
         <f aca="false">'Id. + dados'!J5</f>
         <v>14.2135829474829</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="51" t="n">
+      <c r="A22" s="53" t="n">
         <v>18</v>
       </c>
-      <c r="B22" s="48" t="n">
+      <c r="B22" s="50" t="n">
         <f aca="false">'Id. + dados'!I82</f>
         <v>13.6024356984855</v>
       </c>
-      <c r="C22" s="48" t="n">
+      <c r="C22" s="50" t="n">
         <f aca="false">'Id. + dados'!J50</f>
         <v>14.3799031674676</v>
       </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="56" t="s">
-        <v>51</v>
+      <c r="I22" s="59" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="51" t="n">
+      <c r="A23" s="53" t="n">
         <v>19</v>
       </c>
-      <c r="B23" s="48" t="n">
+      <c r="B23" s="50" t="n">
         <f aca="false">'Id. + dados'!I47</f>
         <v>13.9375327164928</v>
       </c>
-      <c r="C23" s="48" t="n">
+      <c r="C23" s="50" t="n">
         <f aca="false">'Id. + dados'!J76</f>
         <v>14.6985276025037</v>
       </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="48" t="n">
+      <c r="I23" s="50" t="n">
         <f aca="false">SUMPRODUCT($I$4:$I$10,$J$4:$J$10)</f>
         <v>2405</v>
       </c>
-      <c r="J23" s="48" t="n">
+      <c r="J23" s="50" t="n">
         <f aca="false">SUMPRODUCT($I$4:$I$10,$K$4:$K$10)</f>
         <v>2585</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="51" t="n">
+      <c r="A24" s="53" t="n">
         <v>20</v>
       </c>
-      <c r="B24" s="48" t="n">
+      <c r="B24" s="50" t="n">
         <f aca="false">'Id. + dados'!I71</f>
         <v>14.1141159445766</v>
       </c>
-      <c r="C24" s="48" t="n">
+      <c r="C24" s="50" t="n">
         <f aca="false">'Id. + dados'!J62</f>
         <v>15.0104433077464</v>
       </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
       <c r="F24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="51" t="n">
+      <c r="A25" s="53" t="n">
         <v>21</v>
       </c>
-      <c r="B25" s="48" t="n">
+      <c r="B25" s="50" t="n">
         <f aca="false">'Id. + dados'!I92</f>
         <v>14.3004343651277</v>
       </c>
-      <c r="C25" s="48" t="n">
+      <c r="C25" s="50" t="n">
         <f aca="false">'Id. + dados'!J26</f>
         <v>15.166477234009</v>
       </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="51" t="n">
+      <c r="A26" s="53" t="n">
         <v>22</v>
       </c>
-      <c r="B26" s="48" t="n">
+      <c r="B26" s="50" t="n">
         <f aca="false">'Id. + dados'!I53</f>
         <v>14.3220418347792</v>
       </c>
-      <c r="C26" s="48" t="n">
+      <c r="C26" s="50" t="n">
         <f aca="false">'Id. + dados'!J35</f>
         <v>15.3876625748723</v>
       </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="51" t="n">
+      <c r="A27" s="53" t="n">
         <v>23</v>
       </c>
-      <c r="B27" s="48" t="n">
+      <c r="B27" s="50" t="n">
         <f aca="false">'Id. + dados'!I59</f>
         <v>14.4015534813412</v>
       </c>
-      <c r="C27" s="48" t="n">
+      <c r="C27" s="50" t="n">
         <f aca="false">'Id. + dados'!J90</f>
         <v>15.6963537763192</v>
       </c>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -5985,1843 +6028,1843 @@
       <c r="J27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="51" t="n">
+      <c r="A28" s="53" t="n">
         <v>24</v>
       </c>
-      <c r="B28" s="48" t="n">
+      <c r="B28" s="50" t="n">
         <f aca="false">'Id. + dados'!I31</f>
         <v>14.8116062927256</v>
       </c>
-      <c r="C28" s="48" t="n">
+      <c r="C28" s="50" t="n">
         <f aca="false">'Id. + dados'!J52</f>
         <v>15.8477748244206</v>
       </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="51" t="n">
+      <c r="A29" s="53" t="n">
         <v>25</v>
       </c>
-      <c r="B29" s="48" t="n">
+      <c r="B29" s="50" t="n">
         <f aca="false">'Id. + dados'!I5</f>
         <v>15.2007889085737</v>
       </c>
-      <c r="C29" s="48" t="n">
+      <c r="C29" s="50" t="n">
         <f aca="false">'Id. + dados'!J59</f>
         <v>16.3753797090491</v>
       </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="51" t="n">
+      <c r="A30" s="53" t="n">
         <v>26</v>
       </c>
-      <c r="B30" s="48" t="n">
+      <c r="B30" s="50" t="n">
         <f aca="false">'Id. + dados'!I121</f>
         <v>15.2508948228965</v>
       </c>
-      <c r="C30" s="48" t="n">
+      <c r="C30" s="50" t="n">
         <f aca="false">'Id. + dados'!J67</f>
         <v>16.6054890551564</v>
       </c>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="51" t="n">
+      <c r="A31" s="53" t="n">
         <v>27</v>
       </c>
-      <c r="B31" s="48" t="n">
+      <c r="B31" s="50" t="n">
         <f aca="false">'Id. + dados'!I38</f>
         <v>15.5350073581959</v>
       </c>
-      <c r="C31" s="48" t="n">
+      <c r="C31" s="50" t="n">
         <f aca="false">'Id. + dados'!J84</f>
         <v>16.685233516557</v>
       </c>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="51" t="n">
+      <c r="A32" s="53" t="n">
         <v>28</v>
       </c>
-      <c r="B32" s="48" t="n">
+      <c r="B32" s="50" t="n">
         <f aca="false">'Id. + dados'!I109</f>
         <v>15.553267579718</v>
       </c>
-      <c r="C32" s="48" t="n">
+      <c r="C32" s="50" t="n">
         <f aca="false">'Id. + dados'!J123</f>
         <v>17.4539904803462</v>
       </c>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="51" t="n">
+      <c r="A33" s="53" t="n">
         <v>29</v>
       </c>
-      <c r="B33" s="48" t="n">
+      <c r="B33" s="50" t="n">
         <f aca="false">'Id. + dados'!I24</f>
         <v>15.5668445186129</v>
       </c>
-      <c r="C33" s="48" t="n">
+      <c r="C33" s="50" t="n">
         <f aca="false">'Id. + dados'!J32</f>
         <v>17.5344385895737</v>
       </c>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="51" t="n">
+      <c r="A34" s="53" t="n">
         <v>30</v>
       </c>
-      <c r="B34" s="48" t="n">
+      <c r="B34" s="50" t="n">
         <f aca="false">'Id. + dados'!I112</f>
         <v>15.5753647197148</v>
       </c>
-      <c r="C34" s="48" t="n">
+      <c r="C34" s="50" t="n">
         <f aca="false">'Id. + dados'!J10</f>
         <v>17.6001355744257</v>
       </c>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="51" t="n">
+      <c r="A35" s="53" t="n">
         <v>31</v>
       </c>
-      <c r="B35" s="48" t="n">
+      <c r="B35" s="50" t="n">
         <f aca="false">'Id. + dados'!I23</f>
         <v>15.9458613852372</v>
       </c>
-      <c r="C35" s="48" t="n">
+      <c r="C35" s="50" t="n">
         <f aca="false">'Id. + dados'!J100</f>
         <v>17.8017466437238</v>
       </c>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="51" t="n">
+      <c r="A36" s="53" t="n">
         <v>32</v>
       </c>
-      <c r="B36" s="48" t="n">
+      <c r="B36" s="50" t="n">
         <f aca="false">'Id. + dados'!I69</f>
         <v>16.0129538686814</v>
       </c>
-      <c r="C36" s="48" t="n">
+      <c r="C36" s="50" t="n">
         <f aca="false">'Id. + dados'!J42</f>
         <v>18.1767916216195</v>
       </c>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="51" t="n">
+      <c r="A37" s="53" t="n">
         <v>33</v>
       </c>
-      <c r="B37" s="48" t="n">
+      <c r="B37" s="50" t="n">
         <f aca="false">'Id. + dados'!I41</f>
         <v>16.0755714469023</v>
       </c>
-      <c r="C37" s="48" t="n">
+      <c r="C37" s="50" t="n">
         <f aca="false">'Id. + dados'!J70</f>
         <v>18.3808120861077</v>
       </c>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="51" t="n">
+      <c r="A38" s="53" t="n">
         <v>34</v>
       </c>
-      <c r="B38" s="48" t="n">
+      <c r="B38" s="50" t="n">
         <f aca="false">'Id. + dados'!I63</f>
         <v>16.2124036494631</v>
       </c>
-      <c r="C38" s="48" t="n">
+      <c r="C38" s="50" t="n">
         <f aca="false">'Id. + dados'!J48</f>
         <v>18.4892258250042</v>
       </c>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="51" t="n">
+      <c r="A39" s="53" t="n">
         <v>35</v>
       </c>
-      <c r="B39" s="48" t="n">
+      <c r="B39" s="50" t="n">
         <f aca="false">'Id. + dados'!I27</f>
         <v>16.2298979816161</v>
       </c>
-      <c r="C39" s="48" t="n">
+      <c r="C39" s="50" t="n">
         <f aca="false">'Id. + dados'!J41</f>
         <v>18.5080857048911</v>
       </c>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="51" t="n">
+      <c r="A40" s="53" t="n">
         <v>36</v>
       </c>
-      <c r="B40" s="48" t="n">
+      <c r="B40" s="50" t="n">
         <f aca="false">'Id. + dados'!I86</f>
         <v>16.2598694129163</v>
       </c>
-      <c r="C40" s="48" t="n">
+      <c r="C40" s="50" t="n">
         <f aca="false">'Id. + dados'!J121</f>
         <v>18.8832440314507</v>
       </c>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="51" t="n">
+      <c r="A41" s="53" t="n">
         <v>37</v>
       </c>
-      <c r="B41" s="48" t="n">
+      <c r="B41" s="50" t="n">
         <f aca="false">'Id. + dados'!I94</f>
         <v>16.311266858932</v>
       </c>
-      <c r="C41" s="48" t="n">
+      <c r="C41" s="50" t="n">
         <f aca="false">'Id. + dados'!J12</f>
         <v>19.0156245704891</v>
       </c>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="51" t="n">
+      <c r="A42" s="53" t="n">
         <v>38</v>
       </c>
-      <c r="B42" s="48" t="n">
+      <c r="B42" s="50" t="n">
         <f aca="false">'Id. + dados'!I52</f>
         <v>16.6805438054255</v>
       </c>
-      <c r="C42" s="48" t="n">
+      <c r="C42" s="50" t="n">
         <f aca="false">'Id. + dados'!J88</f>
         <v>19.0453160637133</v>
       </c>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="51" t="n">
+      <c r="A43" s="53" t="n">
         <v>39</v>
       </c>
-      <c r="B43" s="48" t="n">
+      <c r="B43" s="50" t="n">
         <f aca="false">'Id. + dados'!I77</f>
         <v>16.6860961311214</v>
       </c>
-      <c r="C43" s="48" t="n">
+      <c r="C43" s="50" t="n">
         <f aca="false">'Id. + dados'!J110</f>
         <v>19.271983203221</v>
       </c>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="51" t="n">
+      <c r="A44" s="53" t="n">
         <v>40</v>
       </c>
-      <c r="B44" s="48" t="n">
+      <c r="B44" s="50" t="n">
         <f aca="false">'Id. + dados'!I96</f>
         <v>16.731369168367</v>
       </c>
-      <c r="C44" s="48" t="n">
+      <c r="C44" s="50" t="n">
         <f aca="false">'Id. + dados'!J4</f>
         <v>19.3187432122134</v>
       </c>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="51" t="n">
+      <c r="A45" s="53" t="n">
         <v>41</v>
       </c>
-      <c r="B45" s="48" t="n">
+      <c r="B45" s="50" t="n">
         <f aca="false">'Id. + dados'!I4</f>
         <v>16.783467284529</v>
       </c>
-      <c r="C45" s="48" t="n">
+      <c r="C45" s="50" t="n">
         <f aca="false">'Id. + dados'!J86</f>
         <v>19.3569524792603</v>
       </c>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="51" t="n">
+      <c r="A46" s="53" t="n">
         <v>42</v>
       </c>
-      <c r="B46" s="48" t="n">
+      <c r="B46" s="50" t="n">
         <f aca="false">'Id. + dados'!I104</f>
         <v>17.0219955757563</v>
       </c>
-      <c r="C46" s="48" t="n">
+      <c r="C46" s="50" t="n">
         <f aca="false">'Id. + dados'!J92</f>
         <v>19.486163333278</v>
       </c>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="51" t="n">
+      <c r="A47" s="53" t="n">
         <v>43</v>
       </c>
-      <c r="B47" s="48" t="n">
+      <c r="B47" s="50" t="n">
         <f aca="false">'Id. + dados'!I49</f>
         <v>17.1209831546592</v>
       </c>
-      <c r="C47" s="48" t="n">
+      <c r="C47" s="50" t="n">
         <f aca="false">'Id. + dados'!J102</f>
         <v>19.5062652587105</v>
       </c>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="51" t="n">
+      <c r="A48" s="53" t="n">
         <v>44</v>
       </c>
-      <c r="B48" s="48" t="n">
+      <c r="B48" s="50" t="n">
         <f aca="false">'Id. + dados'!I90</f>
         <v>17.1703569460131</v>
       </c>
-      <c r="C48" s="48" t="n">
+      <c r="C48" s="50" t="n">
         <f aca="false">'Id. + dados'!J115</f>
         <v>19.5315852246263</v>
       </c>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="51" t="n">
+      <c r="A49" s="53" t="n">
         <v>45</v>
       </c>
-      <c r="B49" s="48" t="n">
+      <c r="B49" s="50" t="n">
         <f aca="false">'Id. + dados'!I116</f>
         <v>17.2383727921538</v>
       </c>
-      <c r="C49" s="48" t="n">
+      <c r="C49" s="50" t="n">
         <f aca="false">'Id. + dados'!J71</f>
         <v>19.5793819545417</v>
       </c>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="51" t="n">
+      <c r="A50" s="53" t="n">
         <v>46</v>
       </c>
-      <c r="B50" s="48" t="n">
+      <c r="B50" s="50" t="n">
         <f aca="false">'Id. + dados'!I91</f>
         <v>17.5043694850992</v>
       </c>
-      <c r="C50" s="48" t="n">
+      <c r="C50" s="50" t="n">
         <f aca="false">'Id. + dados'!J6</f>
         <v>19.8129776112308</v>
       </c>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="51" t="n">
+      <c r="A51" s="53" t="n">
         <v>47</v>
       </c>
-      <c r="B51" s="48" t="n">
+      <c r="B51" s="50" t="n">
         <f aca="false">'Id. + dados'!I58</f>
         <v>17.6464575199709</v>
       </c>
-      <c r="C51" s="48" t="n">
+      <c r="C51" s="50" t="n">
         <f aca="false">'Id. + dados'!J25</f>
         <v>19.8546181032712</v>
       </c>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="51" t="n">
+      <c r="A52" s="53" t="n">
         <v>48</v>
       </c>
-      <c r="B52" s="48" t="n">
+      <c r="B52" s="50" t="n">
         <f aca="false">'Id. + dados'!I28</f>
         <v>17.6493289015672</v>
       </c>
-      <c r="C52" s="48" t="n">
+      <c r="C52" s="50" t="n">
         <f aca="false">'Id. + dados'!J101</f>
         <v>20.1705762132019</v>
       </c>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="51" t="n">
+      <c r="A53" s="53" t="n">
         <v>49</v>
       </c>
-      <c r="B53" s="48" t="n">
+      <c r="B53" s="50" t="n">
         <f aca="false">'Id. + dados'!I44</f>
         <v>17.9262523846385</v>
       </c>
-      <c r="C53" s="48" t="n">
+      <c r="C53" s="50" t="n">
         <f aca="false">'Id. + dados'!J36</f>
         <v>20.3732322424819</v>
       </c>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="51" t="n">
+      <c r="A54" s="53" t="n">
         <v>50</v>
       </c>
-      <c r="B54" s="48" t="n">
+      <c r="B54" s="50" t="n">
         <f aca="false">'Id. + dados'!I54</f>
         <v>18.1758251142423</v>
       </c>
-      <c r="C54" s="48" t="n">
+      <c r="C54" s="50" t="n">
         <f aca="false">'Id. + dados'!J58</f>
         <v>20.4609795085293</v>
       </c>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="51" t="n">
+      <c r="A55" s="53" t="n">
         <v>51</v>
       </c>
-      <c r="B55" s="48" t="n">
+      <c r="B55" s="50" t="n">
         <f aca="false">'Id. + dados'!I37</f>
         <v>18.5177945057064</v>
       </c>
-      <c r="C55" s="48" t="n">
+      <c r="C55" s="50" t="n">
         <f aca="false">'Id. + dados'!J57</f>
         <v>20.6753739659484</v>
       </c>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="51" t="n">
+      <c r="A56" s="53" t="n">
         <v>52</v>
       </c>
-      <c r="B56" s="48" t="n">
+      <c r="B56" s="50" t="n">
         <f aca="false">'Id. + dados'!I13</f>
         <v>18.5469388151309</v>
       </c>
-      <c r="C56" s="48" t="n">
+      <c r="C56" s="50" t="n">
         <f aca="false">'Id. + dados'!J117</f>
         <v>21.0298226991841</v>
       </c>
-      <c r="D56" s="52"/>
-      <c r="E56" s="52"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="51" t="n">
+      <c r="A57" s="53" t="n">
         <v>53</v>
       </c>
-      <c r="B57" s="48" t="n">
+      <c r="B57" s="50" t="n">
         <f aca="false">'Id. + dados'!I32</f>
         <v>18.6347063888463</v>
       </c>
-      <c r="C57" s="48" t="n">
+      <c r="C57" s="50" t="n">
         <f aca="false">'Id. + dados'!J34</f>
         <v>21.2265750450905</v>
       </c>
-      <c r="D57" s="52"/>
-      <c r="E57" s="52"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="51" t="n">
+      <c r="A58" s="53" t="n">
         <v>54</v>
       </c>
-      <c r="B58" s="48" t="n">
+      <c r="B58" s="50" t="n">
         <f aca="false">'Id. + dados'!I83</f>
         <v>18.8320117738101</v>
       </c>
-      <c r="C58" s="48" t="n">
+      <c r="C58" s="50" t="n">
         <f aca="false">'Id. + dados'!J29</f>
         <v>21.3000189762561</v>
       </c>
-      <c r="D58" s="52"/>
-      <c r="E58" s="52"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="54"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="51" t="n">
+      <c r="A59" s="53" t="n">
         <v>55</v>
       </c>
-      <c r="B59" s="48" t="n">
+      <c r="B59" s="50" t="n">
         <f aca="false">'Id. + dados'!I25</f>
         <v>19.0561681755918</v>
       </c>
-      <c r="C59" s="48" t="n">
+      <c r="C59" s="50" t="n">
         <f aca="false">'Id. + dados'!J49</f>
         <v>21.3152107428151</v>
       </c>
-      <c r="D59" s="52"/>
-      <c r="E59" s="52"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="51" t="n">
+      <c r="A60" s="53" t="n">
         <v>56</v>
       </c>
-      <c r="B60" s="48" t="n">
+      <c r="B60" s="50" t="n">
         <f aca="false">'Id. + dados'!I10</f>
         <v>19.0653446000099</v>
       </c>
-      <c r="C60" s="48" t="n">
+      <c r="C60" s="50" t="n">
         <f aca="false">'Id. + dados'!J61</f>
         <v>21.7929883598625</v>
       </c>
-      <c r="D60" s="52"/>
-      <c r="E60" s="52"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="51" t="n">
+      <c r="A61" s="53" t="n">
         <v>57</v>
       </c>
-      <c r="B61" s="48" t="n">
+      <c r="B61" s="50" t="n">
         <f aca="false">'Id. + dados'!I75</f>
         <v>19.0995744812681</v>
       </c>
-      <c r="C61" s="48" t="n">
+      <c r="C61" s="50" t="n">
         <f aca="false">'Id. + dados'!J106</f>
         <v>21.8294312960598</v>
       </c>
-      <c r="D61" s="52"/>
-      <c r="E61" s="52"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="51" t="n">
+      <c r="A62" s="53" t="n">
         <v>58</v>
       </c>
-      <c r="B62" s="48" t="n">
+      <c r="B62" s="50" t="n">
         <f aca="false">'Id. + dados'!I45</f>
         <v>19.4192105241696</v>
       </c>
-      <c r="C62" s="48" t="n">
+      <c r="C62" s="50" t="n">
         <f aca="false">'Id. + dados'!J8</f>
         <v>21.8423904124015</v>
       </c>
-      <c r="D62" s="52"/>
-      <c r="E62" s="52"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="51" t="n">
+      <c r="A63" s="53" t="n">
         <v>59</v>
       </c>
-      <c r="B63" s="48" t="n">
+      <c r="B63" s="50" t="n">
         <f aca="false">'Id. + dados'!I8</f>
         <v>19.5870353411012</v>
       </c>
-      <c r="C63" s="48" t="n">
+      <c r="C63" s="50" t="n">
         <f aca="false">'Id. + dados'!J105</f>
         <v>21.9354772589738</v>
       </c>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="51" t="n">
+      <c r="A64" s="53" t="n">
         <v>60</v>
       </c>
-      <c r="B64" s="48" t="n">
+      <c r="B64" s="50" t="n">
         <f aca="false">'Id. + dados'!I98</f>
         <v>19.602266492622</v>
       </c>
-      <c r="C64" s="48" t="n">
+      <c r="C64" s="50" t="n">
         <f aca="false">'Id. + dados'!J47</f>
         <v>22.2274459210297</v>
       </c>
-      <c r="D64" s="52"/>
-      <c r="E64" s="52"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="54"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="51" t="n">
+      <c r="A65" s="53" t="n">
         <v>61</v>
       </c>
-      <c r="B65" s="48" t="n">
+      <c r="B65" s="50" t="n">
         <f aca="false">'Id. + dados'!I85</f>
         <v>19.6145296967846</v>
       </c>
-      <c r="C65" s="48" t="n">
+      <c r="C65" s="50" t="n">
         <f aca="false">'Id. + dados'!J116</f>
         <v>22.2616957178718</v>
       </c>
-      <c r="D65" s="52"/>
-      <c r="E65" s="52"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="54"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="51" t="n">
+      <c r="A66" s="53" t="n">
         <v>62</v>
       </c>
-      <c r="B66" s="48" t="n">
+      <c r="B66" s="50" t="n">
         <f aca="false">'Id. + dados'!I30</f>
         <v>19.7871073806969</v>
       </c>
-      <c r="C66" s="48" t="n">
+      <c r="C66" s="50" t="n">
         <f aca="false">'Id. + dados'!J22</f>
         <v>22.7242531491106</v>
       </c>
-      <c r="D66" s="52"/>
-      <c r="E66" s="52"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="54"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="51" t="n">
+      <c r="A67" s="53" t="n">
         <v>63</v>
       </c>
-      <c r="B67" s="48" t="n">
+      <c r="B67" s="50" t="n">
         <f aca="false">'Id. + dados'!I72</f>
         <v>19.8224520136235</v>
       </c>
-      <c r="C67" s="48" t="n">
+      <c r="C67" s="50" t="n">
         <f aca="false">'Id. + dados'!J119</f>
         <v>22.8341710290681</v>
       </c>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="51" t="n">
+      <c r="A68" s="53" t="n">
         <v>64</v>
       </c>
-      <c r="B68" s="48" t="n">
+      <c r="B68" s="50" t="n">
         <f aca="false">'Id. + dados'!I93</f>
         <v>19.9344500031771</v>
       </c>
-      <c r="C68" s="48" t="n">
+      <c r="C68" s="50" t="n">
         <f aca="false">'Id. + dados'!J104</f>
         <v>22.9679805164882</v>
       </c>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="51" t="n">
+      <c r="A69" s="53" t="n">
         <v>65</v>
       </c>
-      <c r="B69" s="48" t="n">
+      <c r="B69" s="50" t="n">
         <f aca="false">'Id. + dados'!I33</f>
         <v>20.4541170911289</v>
       </c>
-      <c r="C69" s="48" t="n">
+      <c r="C69" s="50" t="n">
         <f aca="false">'Id. + dados'!J31</f>
         <v>22.9790451428223</v>
       </c>
-      <c r="D69" s="52"/>
-      <c r="E69" s="52"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="51" t="n">
+      <c r="A70" s="53" t="n">
         <v>66</v>
       </c>
-      <c r="B70" s="48" t="n">
+      <c r="B70" s="50" t="n">
         <f aca="false">'Id. + dados'!I11</f>
         <v>20.5073663466125</v>
       </c>
-      <c r="C70" s="48" t="n">
+      <c r="C70" s="50" t="n">
         <f aca="false">'Id. + dados'!J77</f>
         <v>22.9906622922516</v>
       </c>
-      <c r="D70" s="52"/>
-      <c r="E70" s="52"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="51" t="n">
+      <c r="A71" s="53" t="n">
         <v>67</v>
       </c>
-      <c r="B71" s="48" t="n">
+      <c r="B71" s="50" t="n">
         <f aca="false">'Id. + dados'!I101</f>
         <v>20.7561024396987</v>
       </c>
-      <c r="C71" s="48" t="n">
+      <c r="C71" s="50" t="n">
         <f aca="false">'Id. + dados'!J87</f>
         <v>23.1256586184177</v>
       </c>
-      <c r="D71" s="52"/>
-      <c r="E71" s="52"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="54"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="51" t="n">
+      <c r="A72" s="53" t="n">
         <v>68</v>
       </c>
-      <c r="B72" s="48" t="n">
+      <c r="B72" s="50" t="n">
         <f aca="false">'Id. + dados'!I43</f>
         <v>20.8981903342811</v>
       </c>
-      <c r="C72" s="48" t="n">
+      <c r="C72" s="50" t="n">
         <f aca="false">'Id. + dados'!J74</f>
         <v>23.1472685943855</v>
       </c>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="54"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="51" t="n">
+      <c r="A73" s="53" t="n">
         <v>69</v>
       </c>
-      <c r="B73" s="48" t="n">
+      <c r="B73" s="50" t="n">
         <f aca="false">'Id. + dados'!I88</f>
         <v>20.9606739590139</v>
       </c>
-      <c r="C73" s="48" t="n">
+      <c r="C73" s="50" t="n">
         <f aca="false">'Id. + dados'!J14</f>
         <v>23.1968106663135</v>
       </c>
-      <c r="D73" s="52"/>
-      <c r="E73" s="52"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="51" t="n">
+      <c r="A74" s="53" t="n">
         <v>70</v>
       </c>
-      <c r="B74" s="48" t="n">
+      <c r="B74" s="50" t="n">
         <f aca="false">'Id. + dados'!I29</f>
         <v>21.0346690038809</v>
       </c>
-      <c r="C74" s="48" t="n">
+      <c r="C74" s="50" t="n">
         <f aca="false">'Id. + dados'!J75</f>
         <v>23.325954618682</v>
       </c>
-      <c r="D74" s="52"/>
-      <c r="E74" s="52"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="54"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="51" t="n">
+      <c r="A75" s="53" t="n">
         <v>71</v>
       </c>
-      <c r="B75" s="48" t="n">
+      <c r="B75" s="50" t="n">
         <f aca="false">'Id. + dados'!I115</f>
         <v>21.543121004934</v>
       </c>
-      <c r="C75" s="48" t="n">
+      <c r="C75" s="50" t="n">
         <f aca="false">'Id. + dados'!J99</f>
         <v>23.3861229996192</v>
       </c>
-      <c r="D75" s="52"/>
-      <c r="E75" s="52"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="54"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="51" t="n">
+      <c r="A76" s="53" t="n">
         <v>72</v>
       </c>
-      <c r="B76" s="48" t="n">
+      <c r="B76" s="50" t="n">
         <f aca="false">'Id. + dados'!I84</f>
         <v>22.1107253388887</v>
       </c>
-      <c r="C76" s="48" t="n">
+      <c r="C76" s="50" t="n">
         <f aca="false">'Id. + dados'!J65</f>
         <v>23.5530658586081</v>
       </c>
-      <c r="D76" s="52"/>
-      <c r="E76" s="52"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="54"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="51" t="n">
+      <c r="A77" s="53" t="n">
         <v>73</v>
       </c>
-      <c r="B77" s="48" t="n">
+      <c r="B77" s="50" t="n">
         <f aca="false">'Id. + dados'!I15</f>
         <v>22.2502612167712</v>
       </c>
-      <c r="C77" s="48" t="n">
+      <c r="C77" s="50" t="n">
         <f aca="false">'Id. + dados'!J27</f>
         <v>23.5917504217617</v>
       </c>
-      <c r="D77" s="52"/>
-      <c r="E77" s="52"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="54"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="51" t="n">
+      <c r="A78" s="53" t="n">
         <v>74</v>
       </c>
-      <c r="B78" s="48" t="n">
+      <c r="B78" s="50" t="n">
         <f aca="false">'Id. + dados'!I113</f>
         <v>22.3237902448057</v>
       </c>
-      <c r="C78" s="48" t="n">
+      <c r="C78" s="50" t="n">
         <f aca="false">'Id. + dados'!J89</f>
         <v>23.5960766122803</v>
       </c>
-      <c r="D78" s="52"/>
-      <c r="E78" s="52"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="51" t="n">
+      <c r="A79" s="53" t="n">
         <v>75</v>
       </c>
-      <c r="B79" s="48" t="n">
+      <c r="B79" s="50" t="n">
         <f aca="false">'Id. + dados'!I95</f>
         <v>22.352662102765</v>
       </c>
-      <c r="C79" s="48" t="n">
+      <c r="C79" s="50" t="n">
         <f aca="false">'Id. + dados'!J11</f>
         <v>23.6028882206347</v>
       </c>
-      <c r="D79" s="52"/>
-      <c r="E79" s="52"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="54"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="51" t="n">
+      <c r="A80" s="53" t="n">
         <v>76</v>
       </c>
-      <c r="B80" s="48" t="n">
+      <c r="B80" s="50" t="n">
         <f aca="false">'Id. + dados'!I105</f>
         <v>22.6245920936993</v>
       </c>
-      <c r="C80" s="48" t="n">
+      <c r="C80" s="50" t="n">
         <f aca="false">'Id. + dados'!J28</f>
         <v>23.6324304323861</v>
       </c>
-      <c r="D80" s="52"/>
-      <c r="E80" s="52"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="54"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="51" t="n">
+      <c r="A81" s="53" t="n">
         <v>77</v>
       </c>
-      <c r="B81" s="48" t="n">
+      <c r="B81" s="50" t="n">
         <f aca="false">'Id. + dados'!I20</f>
         <v>22.888881511867</v>
       </c>
-      <c r="C81" s="48" t="n">
+      <c r="C81" s="50" t="n">
         <f aca="false">'Id. + dados'!J60</f>
         <v>23.7904795831062</v>
       </c>
-      <c r="D81" s="52"/>
-      <c r="E81" s="52"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="54"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="51" t="n">
+      <c r="A82" s="53" t="n">
         <v>78</v>
       </c>
-      <c r="B82" s="48" t="n">
+      <c r="B82" s="50" t="n">
         <f aca="false">'Id. + dados'!I74</f>
         <v>22.9025499632697</v>
       </c>
-      <c r="C82" s="48" t="n">
+      <c r="C82" s="50" t="n">
         <f aca="false">'Id. + dados'!J7</f>
         <v>23.8950136370109</v>
       </c>
-      <c r="D82" s="52"/>
-      <c r="E82" s="52"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="54"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="51" t="n">
+      <c r="A83" s="53" t="n">
         <v>79</v>
       </c>
-      <c r="B83" s="48" t="n">
+      <c r="B83" s="50" t="n">
         <f aca="false">'Id. + dados'!I55</f>
         <v>22.9417840216357</v>
       </c>
-      <c r="C83" s="48" t="n">
+      <c r="C83" s="50" t="n">
         <f aca="false">'Id. + dados'!J24</f>
         <v>23.9593826127115</v>
       </c>
-      <c r="D83" s="52"/>
-      <c r="E83" s="52"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="54"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="51" t="n">
+      <c r="A84" s="53" t="n">
         <v>80</v>
       </c>
-      <c r="B84" s="48" t="n">
+      <c r="B84" s="50" t="n">
         <f aca="false">'Id. + dados'!I119</f>
         <v>22.9889726449734</v>
       </c>
-      <c r="C84" s="48" t="n">
+      <c r="C84" s="50" t="n">
         <f aca="false">'Id. + dados'!J55</f>
         <v>23.9724774822279</v>
       </c>
-      <c r="D84" s="52"/>
-      <c r="E84" s="52"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="54"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="51" t="n">
+      <c r="A85" s="53" t="n">
         <v>81</v>
       </c>
-      <c r="B85" s="48" t="n">
+      <c r="B85" s="50" t="n">
         <f aca="false">'Id. + dados'!I114</f>
         <v>23.4586118277732</v>
       </c>
-      <c r="C85" s="48" t="n">
+      <c r="C85" s="50" t="n">
         <f aca="false">'Id. + dados'!J54</f>
         <v>24.2103758057641</v>
       </c>
-      <c r="D85" s="52"/>
-      <c r="E85" s="52"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="54"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="51" t="n">
+      <c r="A86" s="53" t="n">
         <v>82</v>
       </c>
-      <c r="B86" s="48" t="n">
+      <c r="B86" s="50" t="n">
         <f aca="false">'Id. + dados'!I9</f>
         <v>23.866529460217</v>
       </c>
-      <c r="C86" s="48" t="n">
+      <c r="C86" s="50" t="n">
         <f aca="false">'Id. + dados'!J23</f>
         <v>24.217081104091</v>
       </c>
-      <c r="D86" s="52"/>
-      <c r="E86" s="52"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="54"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="51" t="n">
+      <c r="A87" s="53" t="n">
         <v>83</v>
       </c>
-      <c r="B87" s="48" t="n">
+      <c r="B87" s="50" t="n">
         <f aca="false">'Id. + dados'!I62</f>
         <v>24.3690523621891</v>
       </c>
-      <c r="C87" s="48" t="n">
+      <c r="C87" s="50" t="n">
         <f aca="false">'Id. + dados'!J113</f>
         <v>24.2674553738338</v>
       </c>
-      <c r="D87" s="52"/>
-      <c r="E87" s="52"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="54"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="51" t="n">
+      <c r="A88" s="53" t="n">
         <v>84</v>
       </c>
-      <c r="B88" s="48" t="n">
+      <c r="B88" s="50" t="n">
         <f aca="false">'Id. + dados'!I65</f>
         <v>24.3745378830801</v>
       </c>
-      <c r="C88" s="48" t="n">
+      <c r="C88" s="50" t="n">
         <f aca="false">'Id. + dados'!J68</f>
         <v>24.356034598681</v>
       </c>
-      <c r="D88" s="52"/>
-      <c r="E88" s="52"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="54"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="51" t="n">
+      <c r="A89" s="53" t="n">
         <v>85</v>
       </c>
-      <c r="B89" s="48" t="n">
+      <c r="B89" s="50" t="n">
         <f aca="false">'Id. + dados'!I34</f>
         <v>24.4017244265128</v>
       </c>
-      <c r="C89" s="48" t="n">
+      <c r="C89" s="50" t="n">
         <f aca="false">'Id. + dados'!J66</f>
         <v>24.4840274087666</v>
       </c>
-      <c r="D89" s="52"/>
-      <c r="E89" s="52"/>
+      <c r="D89" s="54"/>
+      <c r="E89" s="54"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="51" t="n">
+      <c r="A90" s="53" t="n">
         <v>86</v>
       </c>
-      <c r="B90" s="48" t="n">
+      <c r="B90" s="50" t="n">
         <f aca="false">'Id. + dados'!I18</f>
         <v>24.6507951571359</v>
       </c>
-      <c r="C90" s="48" t="n">
+      <c r="C90" s="50" t="n">
         <f aca="false">'Id. + dados'!J91</f>
         <v>24.6974765506598</v>
       </c>
-      <c r="D90" s="52"/>
-      <c r="E90" s="52"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="54"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="51" t="n">
+      <c r="A91" s="53" t="n">
         <v>87</v>
       </c>
-      <c r="B91" s="48" t="n">
+      <c r="B91" s="50" t="n">
         <f aca="false">'Id. + dados'!I107</f>
         <v>24.7335986449215</v>
       </c>
-      <c r="C91" s="48" t="n">
+      <c r="C91" s="50" t="n">
         <f aca="false">'Id. + dados'!J103</f>
         <v>24.7249338673127</v>
       </c>
-      <c r="D91" s="52"/>
-      <c r="E91" s="52"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="54"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="51" t="n">
+      <c r="A92" s="53" t="n">
         <v>88</v>
       </c>
-      <c r="B92" s="48" t="n">
+      <c r="B92" s="50" t="n">
         <f aca="false">'Id. + dados'!I26</f>
         <v>24.8622216638804</v>
       </c>
-      <c r="C92" s="48" t="n">
+      <c r="C92" s="50" t="n">
         <f aca="false">'Id. + dados'!J118</f>
         <v>24.9618610452802</v>
       </c>
-      <c r="D92" s="52"/>
-      <c r="E92" s="52"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="54"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="51" t="n">
+      <c r="A93" s="53" t="n">
         <v>89</v>
       </c>
-      <c r="B93" s="48" t="n">
+      <c r="B93" s="50" t="n">
         <f aca="false">'Id. + dados'!I40</f>
         <v>24.9414726922142</v>
       </c>
-      <c r="C93" s="48" t="n">
+      <c r="C93" s="50" t="n">
         <f aca="false">'Id. + dados'!J17</f>
         <v>25.0223250255871</v>
       </c>
-      <c r="D93" s="52"/>
-      <c r="E93" s="52"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="54"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="51" t="n">
+      <c r="A94" s="53" t="n">
         <v>90</v>
       </c>
-      <c r="B94" s="48" t="n">
+      <c r="B94" s="50" t="n">
         <f aca="false">'Id. + dados'!I60</f>
         <v>25.2442020240066</v>
       </c>
-      <c r="C94" s="48" t="n">
+      <c r="C94" s="50" t="n">
         <f aca="false">'Id. + dados'!J53</f>
         <v>25.4589080782287</v>
       </c>
-      <c r="D94" s="52"/>
-      <c r="E94" s="52"/>
+      <c r="D94" s="54"/>
+      <c r="E94" s="54"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="51" t="n">
+      <c r="A95" s="53" t="n">
         <v>91</v>
       </c>
-      <c r="B95" s="48" t="n">
+      <c r="B95" s="50" t="n">
         <f aca="false">'Id. + dados'!I117</f>
         <v>25.2767896883564</v>
       </c>
-      <c r="C95" s="48" t="n">
+      <c r="C95" s="50" t="n">
         <f aca="false">'Id. + dados'!J120</f>
         <v>25.4867108634249</v>
       </c>
-      <c r="D95" s="52"/>
-      <c r="E95" s="52"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="54"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="51" t="n">
+      <c r="A96" s="53" t="n">
         <v>92</v>
       </c>
-      <c r="B96" s="48" t="n">
+      <c r="B96" s="50" t="n">
         <f aca="false">'Id. + dados'!I108</f>
         <v>25.2936598097273</v>
       </c>
-      <c r="C96" s="48" t="n">
+      <c r="C96" s="50" t="n">
         <f aca="false">'Id. + dados'!J94</f>
         <v>25.5487279908943</v>
       </c>
-      <c r="D96" s="52"/>
-      <c r="E96" s="52"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="54"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="51" t="n">
+      <c r="A97" s="53" t="n">
         <v>93</v>
       </c>
-      <c r="B97" s="48" t="n">
+      <c r="B97" s="50" t="n">
         <f aca="false">'Id. + dados'!I42</f>
         <v>25.5126975468099</v>
       </c>
-      <c r="C97" s="48" t="n">
+      <c r="C97" s="50" t="n">
         <f aca="false">'Id. + dados'!J30</f>
         <v>25.5556810932267</v>
       </c>
-      <c r="D97" s="52"/>
-      <c r="E97" s="52"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="54"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="51" t="n">
+      <c r="A98" s="53" t="n">
         <v>94</v>
       </c>
-      <c r="B98" s="48" t="n">
+      <c r="B98" s="50" t="n">
         <f aca="false">'Id. + dados'!I48</f>
         <v>25.577991152309</v>
       </c>
-      <c r="C98" s="48" t="n">
+      <c r="C98" s="50" t="n">
         <f aca="false">'Id. + dados'!J78</f>
         <v>25.6296151955277</v>
       </c>
-      <c r="D98" s="52"/>
-      <c r="E98" s="52"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="54"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="51" t="n">
+      <c r="A99" s="53" t="n">
         <v>95</v>
       </c>
-      <c r="B99" s="48" t="n">
+      <c r="B99" s="50" t="n">
         <f aca="false">'Id. + dados'!I111</f>
         <v>25.711579710466</v>
       </c>
-      <c r="C99" s="48" t="n">
+      <c r="C99" s="50" t="n">
         <f aca="false">'Id. + dados'!J111</f>
         <v>25.9293200232304</v>
       </c>
-      <c r="D99" s="52"/>
-      <c r="E99" s="52"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="54"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="51" t="n">
+      <c r="A100" s="53" t="n">
         <v>96</v>
       </c>
-      <c r="B100" s="48" t="n">
+      <c r="B100" s="50" t="n">
         <f aca="false">'Id. + dados'!I17</f>
         <v>25.8834013504075</v>
       </c>
-      <c r="C100" s="48" t="n">
+      <c r="C100" s="50" t="n">
         <f aca="false">'Id. + dados'!J109</f>
         <v>25.9543998104597</v>
       </c>
-      <c r="D100" s="52"/>
-      <c r="E100" s="52"/>
+      <c r="D100" s="54"/>
+      <c r="E100" s="54"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="51" t="n">
+      <c r="A101" s="53" t="n">
         <v>97</v>
       </c>
-      <c r="B101" s="48" t="n">
+      <c r="B101" s="50" t="n">
         <f aca="false">'Id. + dados'!I36</f>
         <v>25.9207283989322</v>
       </c>
-      <c r="C101" s="48" t="n">
+      <c r="C101" s="50" t="n">
         <f aca="false">'Id. + dados'!J93</f>
         <v>26.6462176092411</v>
       </c>
-      <c r="D101" s="52"/>
-      <c r="E101" s="52"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="54"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="51" t="n">
+      <c r="A102" s="53" t="n">
         <v>98</v>
       </c>
-      <c r="B102" s="48" t="n">
+      <c r="B102" s="50" t="n">
         <f aca="false">'Id. + dados'!I57</f>
         <v>26.0074711135047</v>
       </c>
-      <c r="C102" s="48" t="n">
+      <c r="C102" s="50" t="n">
         <f aca="false">'Id. + dados'!J79</f>
         <v>26.742277100351</v>
       </c>
-      <c r="D102" s="52"/>
-      <c r="E102" s="52"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="54"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="51" t="n">
+      <c r="A103" s="53" t="n">
         <v>99</v>
       </c>
-      <c r="B103" s="48" t="n">
+      <c r="B103" s="50" t="n">
         <f aca="false">'Id. + dados'!I100</f>
         <v>26.1981123436647</v>
       </c>
-      <c r="C103" s="48" t="n">
+      <c r="C103" s="50" t="n">
         <f aca="false">'Id. + dados'!J33</f>
         <v>26.8589018765824</v>
       </c>
-      <c r="D103" s="52"/>
-      <c r="E103" s="52"/>
+      <c r="D103" s="54"/>
+      <c r="E103" s="54"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="51" t="n">
+      <c r="A104" s="53" t="n">
         <v>100</v>
       </c>
-      <c r="B104" s="48" t="n">
+      <c r="B104" s="50" t="n">
         <f aca="false">'Id. + dados'!I73</f>
         <v>26.7510271564838</v>
       </c>
-      <c r="C104" s="48" t="n">
+      <c r="C104" s="50" t="n">
         <f aca="false">'Id. + dados'!J16</f>
         <v>26.9741840048766</v>
       </c>
-      <c r="D104" s="52"/>
-      <c r="E104" s="52"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="54"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="51" t="n">
+      <c r="A105" s="53" t="n">
         <v>101</v>
       </c>
-      <c r="B105" s="48" t="n">
+      <c r="B105" s="50" t="n">
         <f aca="false">'Id. + dados'!I120</f>
         <v>26.7886635108206</v>
       </c>
-      <c r="C105" s="48" t="n">
+      <c r="C105" s="50" t="n">
         <f aca="false">'Id. + dados'!J114</f>
         <v>27.3007826484433</v>
       </c>
-      <c r="D105" s="52"/>
-      <c r="E105" s="52"/>
+      <c r="D105" s="54"/>
+      <c r="E105" s="54"/>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="51" t="n">
+      <c r="A106" s="53" t="n">
         <v>102</v>
       </c>
-      <c r="B106" s="48" t="n">
+      <c r="B106" s="50" t="n">
         <f aca="false">'Id. + dados'!I123</f>
         <v>26.8204938324937</v>
       </c>
-      <c r="C106" s="48" t="n">
+      <c r="C106" s="50" t="n">
         <f aca="false">'Id. + dados'!J122</f>
         <v>27.6364973634588</v>
       </c>
-      <c r="D106" s="52"/>
-      <c r="E106" s="52"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="54"/>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="51" t="n">
+      <c r="A107" s="53" t="n">
         <v>103</v>
       </c>
-      <c r="B107" s="48" t="n">
+      <c r="B107" s="50" t="n">
         <f aca="false">'Id. + dados'!I80</f>
         <v>26.8477093104273</v>
       </c>
-      <c r="C107" s="48" t="n">
+      <c r="C107" s="50" t="n">
         <f aca="false">'Id. + dados'!J56</f>
         <v>27.9845596175178</v>
       </c>
-      <c r="D107" s="52"/>
-      <c r="E107" s="52"/>
+      <c r="D107" s="54"/>
+      <c r="E107" s="54"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="51" t="n">
+      <c r="A108" s="53" t="n">
         <v>104</v>
       </c>
-      <c r="B108" s="48" t="n">
+      <c r="B108" s="50" t="n">
         <f aca="false">'Id. + dados'!I97</f>
         <v>27.040146943963</v>
       </c>
-      <c r="C108" s="48" t="n">
+      <c r="C108" s="50" t="n">
         <f aca="false">'Id. + dados'!J40</f>
         <v>28.0820834084688</v>
       </c>
-      <c r="D108" s="52"/>
-      <c r="E108" s="52"/>
+      <c r="D108" s="54"/>
+      <c r="E108" s="54"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="51" t="n">
+      <c r="A109" s="53" t="n">
         <v>105</v>
       </c>
-      <c r="B109" s="48" t="n">
+      <c r="B109" s="50" t="n">
         <f aca="false">'Id. + dados'!I39</f>
         <v>27.0937495586853</v>
       </c>
-      <c r="C109" s="48" t="n">
+      <c r="C109" s="50" t="n">
         <f aca="false">'Id. + dados'!J83</f>
         <v>28.4205144387094</v>
       </c>
-      <c r="D109" s="52"/>
-      <c r="E109" s="52"/>
+      <c r="D109" s="54"/>
+      <c r="E109" s="54"/>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="51" t="n">
+      <c r="A110" s="53" t="n">
         <v>106</v>
       </c>
-      <c r="B110" s="48" t="n">
+      <c r="B110" s="50" t="n">
         <f aca="false">'Id. + dados'!I118</f>
         <v>27.1958572145996</v>
       </c>
-      <c r="C110" s="48" t="n">
+      <c r="C110" s="50" t="n">
         <f aca="false">'Id. + dados'!J81</f>
         <v>28.4909116498813</v>
       </c>
-      <c r="D110" s="52"/>
-      <c r="E110" s="52"/>
+      <c r="D110" s="54"/>
+      <c r="E110" s="54"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="51" t="n">
+      <c r="A111" s="53" t="n">
         <v>107</v>
       </c>
-      <c r="B111" s="48" t="n">
+      <c r="B111" s="50" t="n">
         <f aca="false">'Id. + dados'!I14</f>
         <v>27.7145448181001</v>
       </c>
-      <c r="C111" s="48" t="n">
+      <c r="C111" s="50" t="n">
         <f aca="false">'Id. + dados'!J97</f>
         <v>28.778283708654</v>
       </c>
-      <c r="D111" s="52"/>
-      <c r="E111" s="52"/>
+      <c r="D111" s="54"/>
+      <c r="E111" s="54"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="51" t="n">
+      <c r="A112" s="53" t="n">
         <v>108</v>
       </c>
-      <c r="B112" s="48" t="n">
+      <c r="B112" s="50" t="n">
         <f aca="false">'Id. + dados'!I89</f>
         <v>27.7573413629708</v>
       </c>
-      <c r="C112" s="48" t="n">
+      <c r="C112" s="50" t="n">
         <f aca="false">'Id. + dados'!J112</f>
         <v>28.896657614569</v>
       </c>
-      <c r="D112" s="52"/>
-      <c r="E112" s="52"/>
+      <c r="D112" s="54"/>
+      <c r="E112" s="54"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="51" t="n">
+      <c r="A113" s="53" t="n">
         <v>109</v>
       </c>
-      <c r="B113" s="48" t="n">
+      <c r="B113" s="50" t="n">
         <f aca="false">'Id. + dados'!I68</f>
         <v>28.1274327680599</v>
       </c>
-      <c r="C113" s="48" t="n">
+      <c r="C113" s="50" t="n">
         <f aca="false">'Id. + dados'!J18</f>
         <v>28.9734317333644</v>
       </c>
-      <c r="D113" s="52"/>
-      <c r="E113" s="52"/>
+      <c r="D113" s="54"/>
+      <c r="E113" s="54"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="51" t="n">
+      <c r="A114" s="53" t="n">
         <v>110</v>
       </c>
-      <c r="B114" s="48" t="n">
+      <c r="B114" s="50" t="n">
         <f aca="false">'Id. + dados'!I21</f>
         <v>28.1542935731826</v>
       </c>
-      <c r="C114" s="48" t="n">
+      <c r="C114" s="50" t="n">
         <f aca="false">'Id. + dados'!J96</f>
         <v>29.0065951065661</v>
       </c>
-      <c r="D114" s="52"/>
-      <c r="E114" s="52"/>
+      <c r="D114" s="54"/>
+      <c r="E114" s="54"/>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="51" t="n">
+      <c r="A115" s="53" t="n">
         <v>111</v>
       </c>
-      <c r="B115" s="48" t="n">
+      <c r="B115" s="50" t="n">
         <f aca="false">'Id. + dados'!I22</f>
         <v>28.6809912276777</v>
       </c>
-      <c r="C115" s="48" t="n">
+      <c r="C115" s="50" t="n">
         <f aca="false">'Id. + dados'!J80</f>
         <v>30.7537543904195</v>
       </c>
-      <c r="D115" s="52"/>
-      <c r="E115" s="52"/>
+      <c r="D115" s="54"/>
+      <c r="E115" s="54"/>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="51" t="n">
+      <c r="A116" s="53" t="n">
         <v>112</v>
       </c>
-      <c r="B116" s="48" t="n">
+      <c r="B116" s="50" t="n">
         <f aca="false">'Id. + dados'!I99</f>
         <v>29.5261638079995</v>
       </c>
-      <c r="C116" s="48" t="n">
+      <c r="C116" s="50" t="n">
         <f aca="false">'Id. + dados'!J15</f>
         <v>30.8260812098964</v>
       </c>
-      <c r="D116" s="52"/>
-      <c r="E116" s="52"/>
+      <c r="D116" s="54"/>
+      <c r="E116" s="54"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="51" t="n">
+      <c r="A117" s="53" t="n">
         <v>113</v>
       </c>
-      <c r="B117" s="48" t="n">
+      <c r="B117" s="50" t="n">
         <f aca="false">'Id. + dados'!I67</f>
         <v>29.7492790244363</v>
       </c>
-      <c r="C117" s="48" t="n">
+      <c r="C117" s="50" t="n">
         <f aca="false">'Id. + dados'!J13</f>
         <v>30.8562884455421</v>
       </c>
-      <c r="D117" s="52"/>
-      <c r="E117" s="52"/>
+      <c r="D117" s="54"/>
+      <c r="E117" s="54"/>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="51" t="n">
+      <c r="A118" s="53" t="n">
         <v>114</v>
       </c>
-      <c r="B118" s="48" t="n">
+      <c r="B118" s="50" t="n">
         <f aca="false">'Id. + dados'!I110</f>
         <v>29.757212981235</v>
       </c>
-      <c r="C118" s="48" t="n">
+      <c r="C118" s="50" t="n">
         <f aca="false">'Id. + dados'!J45</f>
         <v>31.1042521780107</v>
       </c>
-      <c r="D118" s="52"/>
-      <c r="E118" s="52"/>
+      <c r="D118" s="54"/>
+      <c r="E118" s="54"/>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="51" t="n">
+      <c r="A119" s="53" t="n">
         <v>115</v>
       </c>
-      <c r="B119" s="48" t="n">
+      <c r="B119" s="50" t="n">
         <f aca="false">'Id. + dados'!I35</f>
         <v>29.8873544461744</v>
       </c>
-      <c r="C119" s="48" t="n">
+      <c r="C119" s="50" t="n">
         <f aca="false">'Id. + dados'!J46</f>
         <v>31.3493723261756</v>
       </c>
-      <c r="D119" s="52"/>
-      <c r="E119" s="52"/>
+      <c r="D119" s="54"/>
+      <c r="E119" s="54"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="51" t="n">
+      <c r="A120" s="53" t="n">
         <v>116</v>
       </c>
-      <c r="B120" s="48" t="n">
+      <c r="B120" s="50" t="n">
         <f aca="false">'Id. + dados'!I87</f>
         <v>30.6053737928145</v>
       </c>
-      <c r="C120" s="48" t="n">
+      <c r="C120" s="50" t="n">
         <f aca="false">'Id. + dados'!J20</f>
         <v>31.4267541543072</v>
       </c>
-      <c r="D120" s="52"/>
-      <c r="E120" s="52"/>
+      <c r="D120" s="54"/>
+      <c r="E120" s="54"/>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="51" t="n">
+      <c r="A121" s="53" t="n">
         <v>117</v>
       </c>
-      <c r="B121" s="48" t="n">
+      <c r="B121" s="50" t="n">
         <f aca="false">'Id. + dados'!I66</f>
         <v>31.5270062676828</v>
       </c>
-      <c r="C121" s="48" t="n">
+      <c r="C121" s="50" t="n">
         <f aca="false">'Id. + dados'!J108</f>
         <v>33.7845317081361</v>
       </c>
-      <c r="D121" s="52"/>
-      <c r="E121" s="52"/>
+      <c r="D121" s="54"/>
+      <c r="E121" s="54"/>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="51" t="n">
+      <c r="A122" s="53" t="n">
         <v>118</v>
       </c>
-      <c r="B122" s="48" t="n">
+      <c r="B122" s="50" t="n">
         <f aca="false">'Id. + dados'!I122</f>
         <v>32.5490933758104</v>
       </c>
-      <c r="C122" s="48" t="n">
+      <c r="C122" s="50" t="n">
         <f aca="false">'Id. + dados'!J51</f>
         <v>34.8441953342618</v>
       </c>
-      <c r="D122" s="52"/>
-      <c r="E122" s="52"/>
+      <c r="D122" s="54"/>
+      <c r="E122" s="54"/>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="51" t="n">
+      <c r="A123" s="53" t="n">
         <v>119</v>
       </c>
-      <c r="B123" s="48" t="n">
+      <c r="B123" s="50" t="n">
         <f aca="false">'Id. + dados'!I76</f>
         <v>32.6421653311922</v>
       </c>
-      <c r="C123" s="48" t="n">
+      <c r="C123" s="50" t="n">
         <f aca="false">'Id. + dados'!J44</f>
         <v>35.6083643815148</v>
       </c>
-      <c r="D123" s="52"/>
-      <c r="E123" s="52"/>
+      <c r="D123" s="54"/>
+      <c r="E123" s="54"/>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="51" t="n">
+      <c r="A124" s="53" t="n">
         <v>120</v>
       </c>
-      <c r="B124" s="48" t="n">
+      <c r="B124" s="50" t="n">
         <f aca="false">'Id. + dados'!I51</f>
         <v>35.7027117276871</v>
       </c>
-      <c r="C124" s="48" t="n">
+      <c r="C124" s="50" t="n">
         <f aca="false">'Id. + dados'!J38</f>
         <v>38.5792804153899</v>
       </c>
-      <c r="D124" s="52"/>
-      <c r="E124" s="52"/>
+      <c r="D124" s="54"/>
+      <c r="E124" s="54"/>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
@@ -7829,7 +7872,7 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -7843,67 +7886,67 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="48" t="n">
+      <c r="B126" s="50" t="n">
         <f aca="false">SUM($B$5:$B$124)</f>
         <v>2398.66543936845</v>
       </c>
-      <c r="C126" s="48" t="n">
+      <c r="C126" s="50" t="n">
         <f aca="false">SUM($C$5:$C$124)</f>
         <v>2605.42580673549</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H127" s="48" t="n">
+      <c r="H127" s="50" t="n">
         <f aca="false">SKEW(B5:B124)</f>
         <v>-0.105048407935913</v>
       </c>
-      <c r="I127" s="48" t="n">
+      <c r="I127" s="50" t="n">
         <f aca="false">SKEW(C5:C124)</f>
         <v>0.11188899381365</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="48" t="n">
+      <c r="B129" s="50" t="n">
         <f aca="false">AVERAGE($B$5:$B$124)</f>
         <v>19.9888786614038</v>
       </c>
-      <c r="C129" s="48" t="n">
+      <c r="C129" s="50" t="n">
         <f aca="false">AVERAGE(C5:C124)</f>
         <v>21.7118817227957</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H130" s="48" t="n">
+      <c r="H130" s="50" t="n">
         <f aca="false">KURT(B5:B124)</f>
         <v>-0.401628563353944</v>
       </c>
-      <c r="I130" s="48" t="n">
+      <c r="I130" s="50" t="n">
         <f aca="false">KURT(C5:C124)</f>
         <v>-0.183504898954848</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="48" t="n">
+      <c r="B132" s="50" t="n">
         <f aca="false">_xlfn.STDEV.S(B5:B124)</f>
         <v>6.45077485345612</v>
       </c>
-      <c r="C132" s="48" t="n">
+      <c r="C132" s="50" t="n">
         <f aca="false">_xlfn.STDEV.S(C5:C124)</f>
         <v>5.94014213216044</v>
       </c>
@@ -7919,8 +7962,8 @@
         <v>6</v>
       </c>
       <c r="C138" s="10"/>
-      <c r="D138" s="56"/>
-      <c r="E138" s="56"/>
+      <c r="D138" s="59"/>
+      <c r="E138" s="59"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="15" t="s">
@@ -7929,708 +7972,760 @@
       <c r="C139" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D139" s="56"/>
-      <c r="E139" s="56"/>
+      <c r="D139" s="59"/>
+      <c r="E139" s="59"/>
+      <c r="Q139" s="57"/>
     </row>
     <row r="140" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B140" s="57" t="n">
+      <c r="B140" s="60" t="n">
         <f aca="false">'Id. + dados'!F7</f>
         <v>3</v>
       </c>
-      <c r="C140" s="57" t="n">
+      <c r="C140" s="60" t="n">
         <f aca="false">'Id. + dados'!G17</f>
         <v>3</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
-      <c r="J140" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="K140" s="44" t="s">
+      <c r="J140" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="K140" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="L140" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="M140" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="N140" s="44" t="s">
+      <c r="L140" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="M140" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="N140" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="O140" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="P140" s="44" t="s">
-        <v>61</v>
+      <c r="O140" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="P140" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q140" s="39"/>
+      <c r="R140" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="S140" s="46" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B141" s="57" t="n">
+      <c r="B141" s="60" t="n">
         <f aca="false">'Id. + dados'!F36</f>
         <v>3</v>
       </c>
-      <c r="C141" s="57" t="n">
+      <c r="C141" s="60" t="n">
         <f aca="false">'Id. + dados'!G20</f>
         <v>3</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
-      <c r="J141" s="44" t="n">
+      <c r="J141" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="K141" s="59" t="n">
+      <c r="K141" s="62" t="n">
         <f aca="false">COUNTIF(B140:B229,J141)</f>
         <v>6</v>
       </c>
-      <c r="L141" s="59" t="n">
+      <c r="L141" s="62" t="n">
         <f aca="false">COUNTIF(C140:C229,J141)</f>
         <v>3</v>
       </c>
-      <c r="M141" s="50" t="n">
+      <c r="M141" s="52" t="n">
         <f aca="false">K141/$K$155</f>
         <v>0.0666666666666667</v>
       </c>
-      <c r="N141" s="50" t="n">
+      <c r="N141" s="52" t="n">
         <f aca="false">L141/$K$155</f>
         <v>0.0333333333333333</v>
       </c>
-      <c r="O141" s="50" t="n">
+      <c r="O141" s="52" t="n">
         <f aca="false">M141</f>
         <v>0.0666666666666667</v>
       </c>
-      <c r="P141" s="50" t="n">
+      <c r="P141" s="52" t="n">
         <f aca="false">N141</f>
         <v>0.0333333333333333</v>
       </c>
+      <c r="Q141" s="39"/>
+      <c r="R141" s="50"/>
+      <c r="S141" s="50"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B142" s="57" t="n">
+      <c r="B142" s="60" t="n">
         <f aca="false">'Id. + dados'!F44</f>
         <v>3</v>
       </c>
-      <c r="C142" s="57" t="n">
+      <c r="C142" s="60" t="n">
         <f aca="false">'Id. + dados'!G69</f>
         <v>3</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
-      <c r="J142" s="44" t="n">
+      <c r="J142" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="K142" s="59" t="n">
+      <c r="K142" s="62" t="n">
         <f aca="false">COUNTIF(B141:B230,J142)</f>
         <v>8</v>
       </c>
-      <c r="L142" s="59" t="n">
+      <c r="L142" s="62" t="n">
         <f aca="false">COUNTIF(C141:C230,J142)</f>
         <v>6</v>
       </c>
-      <c r="M142" s="50" t="n">
+      <c r="M142" s="52" t="n">
         <f aca="false">K142/$K$155</f>
         <v>0.0888888888888889</v>
       </c>
-      <c r="N142" s="50" t="n">
+      <c r="N142" s="52" t="n">
         <f aca="false">L142/$K$155</f>
         <v>0.0666666666666667</v>
       </c>
-      <c r="O142" s="50" t="n">
+      <c r="O142" s="52" t="n">
         <f aca="false">M142+O141</f>
         <v>0.155555555555556</v>
       </c>
-      <c r="P142" s="50" t="n">
+      <c r="P142" s="52" t="n">
         <f aca="false">N142+P141</f>
         <v>0.1</v>
       </c>
+      <c r="Q142" s="39"/>
+      <c r="R142" s="50"/>
+      <c r="S142" s="50"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B143" s="57" t="n">
+      <c r="B143" s="60" t="n">
         <f aca="false">'Id. + dados'!F74</f>
         <v>3</v>
       </c>
-      <c r="C143" s="57" t="n">
+      <c r="C143" s="60" t="n">
         <f aca="false">'Id. + dados'!G14</f>
         <v>4</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
-      <c r="J143" s="44" t="n">
+      <c r="J143" s="45" t="n">
         <v>5</v>
       </c>
-      <c r="K143" s="59" t="n">
+      <c r="K143" s="62" t="n">
         <f aca="false">COUNTIF(B142:B231,J143)</f>
         <v>19</v>
       </c>
-      <c r="L143" s="59" t="n">
+      <c r="L143" s="62" t="n">
         <f aca="false">COUNTIF(C142:C231,J143)</f>
         <v>13</v>
       </c>
-      <c r="M143" s="50" t="n">
+      <c r="M143" s="52" t="n">
         <f aca="false">K143/$K$155</f>
         <v>0.211111111111111</v>
       </c>
-      <c r="N143" s="50" t="n">
+      <c r="N143" s="52" t="n">
         <f aca="false">L143/$K$155</f>
         <v>0.144444444444444</v>
       </c>
-      <c r="O143" s="50" t="n">
+      <c r="O143" s="52" t="n">
         <f aca="false">M143+O142</f>
         <v>0.366666666666667</v>
       </c>
-      <c r="P143" s="50" t="n">
+      <c r="P143" s="52" t="n">
         <f aca="false">N143+P142</f>
         <v>0.244444444444444</v>
       </c>
+      <c r="Q143" s="39"/>
+      <c r="R143" s="50"/>
+      <c r="S143" s="50"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B144" s="57" t="n">
+      <c r="B144" s="60" t="n">
         <f aca="false">'Id. + dados'!F87</f>
         <v>3</v>
       </c>
-      <c r="C144" s="57" t="n">
+      <c r="C144" s="60" t="n">
         <f aca="false">'Id. + dados'!G57</f>
         <v>4</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
-      <c r="J144" s="44" t="n">
+      <c r="J144" s="45" t="n">
         <v>6</v>
       </c>
-      <c r="K144" s="59" t="n">
+      <c r="K144" s="62" t="n">
         <f aca="false">COUNTIF(B143:B232,J144)</f>
         <v>16</v>
       </c>
-      <c r="L144" s="59" t="n">
+      <c r="L144" s="62" t="n">
         <f aca="false">COUNTIF(C143:C232,J144)</f>
         <v>7</v>
       </c>
-      <c r="M144" s="50" t="n">
+      <c r="M144" s="52" t="n">
         <f aca="false">K144/$K$155</f>
         <v>0.177777777777778</v>
       </c>
-      <c r="N144" s="50" t="n">
+      <c r="N144" s="52" t="n">
         <f aca="false">L144/$K$155</f>
         <v>0.0777777777777778</v>
       </c>
-      <c r="O144" s="50" t="n">
+      <c r="O144" s="52" t="n">
         <f aca="false">M144+O143</f>
         <v>0.544444444444444</v>
       </c>
-      <c r="P144" s="50" t="n">
+      <c r="P144" s="52" t="n">
         <f aca="false">N144+P143</f>
         <v>0.322222222222222</v>
       </c>
+      <c r="Q144" s="39"/>
+      <c r="R144" s="50"/>
+      <c r="S144" s="50"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B145" s="57" t="n">
+      <c r="B145" s="60" t="n">
         <f aca="false">'Id. + dados'!F91</f>
         <v>3</v>
       </c>
-      <c r="C145" s="57" t="n">
+      <c r="C145" s="60" t="n">
         <f aca="false">'Id. + dados'!G64</f>
         <v>4</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
-      <c r="J145" s="44" t="n">
+      <c r="J145" s="45" t="n">
         <v>7</v>
       </c>
-      <c r="K145" s="59" t="n">
+      <c r="K145" s="62" t="n">
         <f aca="false">COUNTIF(B144:B233,J145)</f>
         <v>13</v>
       </c>
-      <c r="L145" s="59" t="n">
+      <c r="L145" s="62" t="n">
         <f aca="false">COUNTIF(C144:C233,J145)</f>
         <v>19</v>
       </c>
-      <c r="M145" s="50" t="n">
+      <c r="M145" s="52" t="n">
         <f aca="false">K145/$K$155</f>
         <v>0.144444444444444</v>
       </c>
-      <c r="N145" s="50" t="n">
+      <c r="N145" s="52" t="n">
         <f aca="false">L145/$K$155</f>
         <v>0.211111111111111</v>
       </c>
-      <c r="O145" s="50" t="n">
+      <c r="O145" s="52" t="n">
         <f aca="false">M145+O144</f>
         <v>0.688888888888889</v>
       </c>
-      <c r="P145" s="50" t="n">
+      <c r="P145" s="52" t="n">
         <f aca="false">N145+P144</f>
         <v>0.533333333333333</v>
       </c>
+      <c r="Q145" s="39"/>
+      <c r="R145" s="50"/>
+      <c r="S145" s="50"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B146" s="57" t="n">
+      <c r="B146" s="60" t="n">
         <f aca="false">'Id. + dados'!F5</f>
         <v>4</v>
       </c>
-      <c r="C146" s="57" t="n">
+      <c r="C146" s="60" t="n">
         <f aca="false">'Id. + dados'!G73</f>
         <v>4</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
-      <c r="J146" s="44" t="n">
+      <c r="J146" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="K146" s="59" t="n">
+      <c r="K146" s="62" t="n">
         <f aca="false">COUNTIF(B145:B234,J146)</f>
         <v>11</v>
       </c>
-      <c r="L146" s="59" t="n">
+      <c r="L146" s="62" t="n">
         <f aca="false">COUNTIF(C145:C234,J146)</f>
         <v>15</v>
       </c>
-      <c r="M146" s="50" t="n">
+      <c r="M146" s="52" t="n">
         <f aca="false">K146/$K$155</f>
         <v>0.122222222222222</v>
       </c>
-      <c r="N146" s="50" t="n">
+      <c r="N146" s="52" t="n">
         <f aca="false">L146/$K$155</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="O146" s="50" t="n">
+      <c r="O146" s="52" t="n">
         <f aca="false">M146+O145</f>
         <v>0.811111111111111</v>
       </c>
-      <c r="P146" s="50" t="n">
+      <c r="P146" s="52" t="n">
         <f aca="false">N146+P145</f>
         <v>0.7</v>
       </c>
+      <c r="Q146" s="39"/>
+      <c r="R146" s="50"/>
+      <c r="S146" s="50"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B147" s="57" t="n">
+      <c r="B147" s="60" t="n">
         <f aca="false">'Id. + dados'!F9</f>
         <v>4</v>
       </c>
-      <c r="C147" s="57" t="n">
+      <c r="C147" s="60" t="n">
         <f aca="false">'Id. + dados'!G80</f>
         <v>4</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
-      <c r="J147" s="44" t="n">
+      <c r="J147" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="K147" s="59" t="n">
+      <c r="K147" s="62" t="n">
         <f aca="false">COUNTIF(B146:B235,J147)</f>
         <v>6</v>
       </c>
-      <c r="L147" s="59" t="n">
+      <c r="L147" s="62" t="n">
         <f aca="false">COUNTIF(C146:C235,J147)</f>
         <v>8</v>
       </c>
-      <c r="M147" s="50" t="n">
+      <c r="M147" s="52" t="n">
         <f aca="false">K147/$K$155</f>
         <v>0.0666666666666667</v>
       </c>
-      <c r="N147" s="50" t="n">
+      <c r="N147" s="52" t="n">
         <f aca="false">L147/$K$155</f>
         <v>0.0888888888888889</v>
       </c>
-      <c r="O147" s="50" t="n">
+      <c r="O147" s="52" t="n">
         <f aca="false">M147+O146</f>
         <v>0.877777777777778</v>
       </c>
-      <c r="P147" s="50" t="n">
+      <c r="P147" s="52" t="n">
         <f aca="false">N147+P146</f>
         <v>0.788888888888889</v>
       </c>
+      <c r="Q147" s="39"/>
+      <c r="R147" s="50"/>
+      <c r="S147" s="50"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B148" s="57" t="n">
+      <c r="B148" s="60" t="n">
         <f aca="false">'Id. + dados'!F11</f>
         <v>4</v>
       </c>
-      <c r="C148" s="57" t="n">
+      <c r="C148" s="60" t="n">
         <f aca="false">'Id. + dados'!G93</f>
         <v>4</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
-      <c r="J148" s="44" t="n">
+      <c r="J148" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="K148" s="59" t="n">
+      <c r="K148" s="62" t="n">
         <f aca="false">COUNTIF(B147:B236,J148)</f>
         <v>5</v>
       </c>
-      <c r="L148" s="59" t="n">
+      <c r="L148" s="62" t="n">
         <f aca="false">COUNTIF(C147:C236,J148)</f>
         <v>11</v>
       </c>
-      <c r="M148" s="50" t="n">
+      <c r="M148" s="52" t="n">
         <f aca="false">K148/$K$155</f>
         <v>0.0555555555555556</v>
       </c>
-      <c r="N148" s="50" t="n">
+      <c r="N148" s="52" t="n">
         <f aca="false">L148/$K$155</f>
         <v>0.122222222222222</v>
       </c>
-      <c r="O148" s="50" t="n">
+      <c r="O148" s="52" t="n">
         <f aca="false">M148+O147</f>
         <v>0.933333333333333</v>
       </c>
-      <c r="P148" s="50" t="n">
+      <c r="P148" s="52" t="n">
         <f aca="false">N148+P147</f>
         <v>0.911111111111111</v>
       </c>
+      <c r="Q148" s="39"/>
+      <c r="R148" s="50"/>
+      <c r="S148" s="50"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B149" s="57" t="n">
+      <c r="B149" s="60" t="n">
         <f aca="false">'Id. + dados'!F16</f>
         <v>4</v>
       </c>
-      <c r="C149" s="57" t="n">
+      <c r="C149" s="60" t="n">
         <f aca="false">'Id. + dados'!G11</f>
         <v>5</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
-      <c r="J149" s="44" t="n">
+      <c r="J149" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="K149" s="59" t="n">
+      <c r="K149" s="62" t="n">
         <f aca="false">COUNTIF(B148:B237,J149)</f>
         <v>4</v>
       </c>
-      <c r="L149" s="59" t="n">
+      <c r="L149" s="62" t="n">
         <f aca="false">COUNTIF(C148:C237,J149)</f>
         <v>3</v>
       </c>
-      <c r="M149" s="50" t="n">
+      <c r="M149" s="52" t="n">
         <f aca="false">K149/$K$155</f>
         <v>0.0444444444444444</v>
       </c>
-      <c r="N149" s="50" t="n">
+      <c r="N149" s="52" t="n">
         <f aca="false">L149/$K$155</f>
         <v>0.0333333333333333</v>
       </c>
-      <c r="O149" s="50" t="n">
+      <c r="O149" s="52" t="n">
         <f aca="false">M149+O148</f>
         <v>0.977777777777778</v>
       </c>
-      <c r="P149" s="50" t="n">
+      <c r="P149" s="52" t="n">
         <f aca="false">N149+P148</f>
         <v>0.944444444444444</v>
       </c>
+      <c r="Q149" s="39"/>
+      <c r="R149" s="50"/>
+      <c r="S149" s="50"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B150" s="57" t="n">
+      <c r="B150" s="60" t="n">
         <f aca="false">'Id. + dados'!F23</f>
         <v>4</v>
       </c>
-      <c r="C150" s="57" t="n">
+      <c r="C150" s="60" t="n">
         <f aca="false">'Id. + dados'!G18</f>
         <v>5</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
-      <c r="J150" s="44" t="n">
+      <c r="J150" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="K150" s="59" t="n">
+      <c r="K150" s="62" t="n">
         <f aca="false">COUNTIF(B149:B238,J150)</f>
         <v>0</v>
       </c>
-      <c r="L150" s="59" t="n">
+      <c r="L150" s="62" t="n">
         <f aca="false">COUNTIF(C149:C238,J150)</f>
         <v>2</v>
       </c>
-      <c r="M150" s="50" t="n">
+      <c r="M150" s="52" t="n">
         <f aca="false">K150/$K$155</f>
         <v>0</v>
       </c>
-      <c r="N150" s="50" t="n">
+      <c r="N150" s="52" t="n">
         <f aca="false">L150/$K$155</f>
         <v>0.0222222222222222</v>
       </c>
-      <c r="O150" s="50" t="n">
+      <c r="O150" s="52" t="n">
         <f aca="false">M150+O149</f>
         <v>0.977777777777778</v>
       </c>
-      <c r="P150" s="50" t="n">
+      <c r="P150" s="52" t="n">
         <f aca="false">N150+P149</f>
         <v>0.966666666666667</v>
       </c>
+      <c r="Q150" s="39"/>
+      <c r="R150" s="50"/>
+      <c r="S150" s="50"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B151" s="57" t="n">
+      <c r="B151" s="60" t="n">
         <f aca="false">'Id. + dados'!F55</f>
         <v>4</v>
       </c>
-      <c r="C151" s="57" t="n">
+      <c r="C151" s="60" t="n">
         <f aca="false">'Id. + dados'!G22</f>
         <v>5</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
-      <c r="J151" s="44" t="n">
+      <c r="J151" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="K151" s="59" t="n">
+      <c r="K151" s="62" t="n">
         <f aca="false">COUNTIF(B150:B239,J151)</f>
         <v>1</v>
       </c>
-      <c r="L151" s="59" t="n">
+      <c r="L151" s="62" t="n">
         <f aca="false">COUNTIF(C150:C239,J151)</f>
         <v>1</v>
       </c>
-      <c r="M151" s="50" t="n">
+      <c r="M151" s="52" t="n">
         <f aca="false">K151/$K$155</f>
         <v>0.0111111111111111</v>
       </c>
-      <c r="N151" s="50" t="n">
+      <c r="N151" s="52" t="n">
         <f aca="false">L151/$K$155</f>
         <v>0.0111111111111111</v>
       </c>
-      <c r="O151" s="50" t="n">
+      <c r="O151" s="52" t="n">
         <f aca="false">M151+O150</f>
         <v>0.988888888888889</v>
       </c>
-      <c r="P151" s="50" t="n">
+      <c r="P151" s="52" t="n">
         <f aca="false">N151+P150</f>
         <v>0.977777777777778</v>
       </c>
+      <c r="Q151" s="39"/>
+      <c r="R151" s="50"/>
+      <c r="S151" s="50"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B152" s="57" t="n">
+      <c r="B152" s="60" t="n">
         <f aca="false">'Id. + dados'!F62</f>
         <v>4</v>
       </c>
-      <c r="C152" s="57" t="n">
+      <c r="C152" s="60" t="n">
         <f aca="false">'Id. + dados'!G38</f>
         <v>5</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
-      <c r="J152" s="44" t="n">
+      <c r="J152" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="K152" s="59" t="n">
+      <c r="K152" s="62" t="n">
         <f aca="false">COUNTIF(B151:B240,J152)</f>
         <v>1</v>
       </c>
-      <c r="L152" s="59" t="n">
+      <c r="L152" s="62" t="n">
         <f aca="false">COUNTIF(C151:C240,J152)</f>
         <v>0</v>
       </c>
-      <c r="M152" s="50" t="n">
+      <c r="M152" s="52" t="n">
         <f aca="false">K152/$K$155</f>
         <v>0.0111111111111111</v>
       </c>
-      <c r="N152" s="50" t="n">
+      <c r="N152" s="52" t="n">
         <f aca="false">L152/$K$155</f>
         <v>0</v>
       </c>
-      <c r="O152" s="50" t="n">
+      <c r="O152" s="52" t="n">
         <f aca="false">M152+O151</f>
         <v>1</v>
       </c>
-      <c r="P152" s="50" t="n">
+      <c r="P152" s="52" t="n">
         <f aca="false">N152+P151</f>
         <v>0.977777777777778</v>
       </c>
+      <c r="Q152" s="39"/>
+      <c r="R152" s="50"/>
+      <c r="S152" s="50"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B153" s="57" t="n">
+      <c r="B153" s="60" t="n">
         <f aca="false">'Id. + dados'!F75</f>
         <v>4</v>
       </c>
-      <c r="C153" s="57" t="n">
+      <c r="C153" s="60" t="n">
         <f aca="false">'Id. + dados'!G42</f>
         <v>5</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
-      <c r="J153" s="44" t="n">
+      <c r="J153" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="K153" s="59" t="n">
+      <c r="K153" s="62" t="n">
         <f aca="false">COUNTIF(B152:B241,J153)</f>
         <v>0</v>
       </c>
-      <c r="L153" s="59" t="n">
+      <c r="L153" s="62" t="n">
         <f aca="false">COUNTIF(C152:C241,J153)</f>
         <v>1</v>
       </c>
-      <c r="M153" s="50" t="n">
+      <c r="M153" s="52" t="n">
         <f aca="false">K153/$K$155</f>
         <v>0</v>
       </c>
-      <c r="N153" s="50" t="n">
+      <c r="N153" s="52" t="n">
         <f aca="false">L153/$K$155</f>
         <v>0.0111111111111111</v>
       </c>
-      <c r="O153" s="50" t="n">
+      <c r="O153" s="52" t="n">
         <f aca="false">M153+O152</f>
         <v>1</v>
       </c>
-      <c r="P153" s="50" t="n">
+      <c r="P153" s="52" t="n">
         <f aca="false">N153+P152</f>
         <v>0.988888888888889</v>
       </c>
+      <c r="Q153" s="39"/>
+      <c r="R153" s="50"/>
+      <c r="S153" s="50"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B154" s="57" t="n">
+      <c r="B154" s="60" t="n">
         <f aca="false">'Id. + dados'!F4</f>
         <v>5</v>
       </c>
-      <c r="C154" s="57" t="n">
+      <c r="C154" s="60" t="n">
         <f aca="false">'Id. + dados'!G51</f>
         <v>5</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
-      <c r="J154" s="44" t="n">
+      <c r="J154" s="45" t="n">
         <v>16</v>
       </c>
-      <c r="K154" s="59" t="n">
+      <c r="K154" s="62" t="n">
         <f aca="false">COUNTIF(B153:B242,J154)</f>
         <v>0</v>
       </c>
-      <c r="L154" s="59" t="n">
+      <c r="L154" s="62" t="n">
         <f aca="false">COUNTIF(C153:C242,J154)</f>
         <v>1</v>
       </c>
-      <c r="M154" s="50" t="n">
+      <c r="M154" s="52" t="n">
         <f aca="false">K154/$K$155</f>
         <v>0</v>
       </c>
-      <c r="N154" s="50" t="n">
+      <c r="N154" s="52" t="n">
         <f aca="false">L154/$K$155</f>
         <v>0.0111111111111111</v>
       </c>
-      <c r="O154" s="50" t="n">
+      <c r="O154" s="52" t="n">
         <f aca="false">M154+O153</f>
         <v>1</v>
       </c>
-      <c r="P154" s="50" t="n">
+      <c r="P154" s="52" t="n">
         <f aca="false">N154+P153</f>
         <v>1</v>
       </c>
+      <c r="Q154" s="39"/>
+      <c r="R154" s="50"/>
+      <c r="S154" s="50"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B155" s="57" t="n">
+      <c r="B155" s="60" t="n">
         <f aca="false">'Id. + dados'!F15</f>
         <v>5</v>
       </c>
-      <c r="C155" s="57" t="n">
+      <c r="C155" s="60" t="n">
         <f aca="false">'Id. + dados'!G52</f>
         <v>5</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
-      <c r="K155" s="48" t="n">
+      <c r="K155" s="50" t="n">
         <f aca="false">SUM(K141:K154)</f>
         <v>90</v>
       </c>
-      <c r="L155" s="48" t="n">
+      <c r="L155" s="50" t="n">
         <f aca="false">SUM(L141:L154)</f>
         <v>90</v>
       </c>
+      <c r="Q155" s="57"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B156" s="57" t="n">
+      <c r="B156" s="60" t="n">
         <f aca="false">'Id. + dados'!F26</f>
         <v>5</v>
       </c>
-      <c r="C156" s="57" t="n">
+      <c r="C156" s="60" t="n">
         <f aca="false">'Id. + dados'!G54</f>
         <v>5</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
+      <c r="Q156" s="57"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B157" s="57" t="n">
+      <c r="B157" s="60" t="n">
         <f aca="false">'Id. + dados'!F29</f>
         <v>5</v>
       </c>
-      <c r="C157" s="57" t="n">
+      <c r="C157" s="60" t="n">
         <f aca="false">'Id. + dados'!G55</f>
         <v>5</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
       <c r="K157" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B158" s="57" t="n">
+      <c r="B158" s="60" t="n">
         <f aca="false">'Id. + dados'!F39</f>
         <v>5</v>
       </c>
-      <c r="C158" s="57" t="n">
+      <c r="C158" s="60" t="n">
         <f aca="false">'Id. + dados'!G63</f>
         <v>5</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
-      <c r="K158" s="48" t="n">
+      <c r="K158" s="50" t="n">
         <f aca="false">SUMPRODUCT(J141:J154,K141:K154)/K155</f>
         <v>6.61111111111111</v>
       </c>
-      <c r="L158" s="48" t="n">
+      <c r="L158" s="50" t="n">
         <f aca="false">SUMPRODUCT(J141:J154,L141:L154)/L155</f>
         <v>7.51111111111111</v>
       </c>
@@ -8639,11 +8734,11 @@
       <c r="A159" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B159" s="57" t="n">
+      <c r="B159" s="60" t="n">
         <f aca="false">'Id. + dados'!F41</f>
         <v>5</v>
       </c>
-      <c r="C159" s="57" t="n">
+      <c r="C159" s="60" t="n">
         <f aca="false">'Id. + dados'!G72</f>
         <v>5</v>
       </c>
@@ -8654,11 +8749,11 @@
       <c r="A160" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B160" s="57" t="n">
+      <c r="B160" s="60" t="n">
         <f aca="false">'Id. + dados'!F50</f>
         <v>5</v>
       </c>
-      <c r="C160" s="57" t="n">
+      <c r="C160" s="60" t="n">
         <f aca="false">'Id. + dados'!G85</f>
         <v>5</v>
       </c>
@@ -8669,11 +8764,11 @@
       <c r="A161" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B161" s="57" t="n">
+      <c r="B161" s="60" t="n">
         <f aca="false">'Id. + dados'!F54</f>
         <v>5</v>
       </c>
-      <c r="C161" s="57" t="n">
+      <c r="C161" s="60" t="n">
         <f aca="false">'Id. + dados'!G92</f>
         <v>5</v>
       </c>
@@ -8684,11 +8779,11 @@
       <c r="A162" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B162" s="57" t="n">
+      <c r="B162" s="60" t="n">
         <f aca="false">'Id. + dados'!F56</f>
         <v>5</v>
       </c>
-      <c r="C162" s="57" t="n">
+      <c r="C162" s="60" t="n">
         <f aca="false">'Id. + dados'!G5</f>
         <v>6</v>
       </c>
@@ -8699,11 +8794,11 @@
       <c r="A163" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B163" s="57" t="n">
+      <c r="B163" s="60" t="n">
         <f aca="false">'Id. + dados'!F61</f>
         <v>5</v>
       </c>
-      <c r="C163" s="57" t="n">
+      <c r="C163" s="60" t="n">
         <f aca="false">'Id. + dados'!G7</f>
         <v>6</v>
       </c>
@@ -8714,11 +8809,11 @@
       <c r="A164" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B164" s="57" t="n">
+      <c r="B164" s="60" t="n">
         <f aca="false">'Id. + dados'!F63</f>
         <v>5</v>
       </c>
-      <c r="C164" s="57" t="n">
+      <c r="C164" s="60" t="n">
         <f aca="false">'Id. + dados'!G23</f>
         <v>6</v>
       </c>
@@ -8729,11 +8824,11 @@
       <c r="A165" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="B165" s="57" t="n">
+      <c r="B165" s="60" t="n">
         <f aca="false">'Id. + dados'!F70</f>
         <v>5</v>
       </c>
-      <c r="C165" s="57" t="n">
+      <c r="C165" s="60" t="n">
         <f aca="false">'Id. + dados'!G37</f>
         <v>6</v>
       </c>
@@ -8744,11 +8839,11 @@
       <c r="A166" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="B166" s="57" t="n">
+      <c r="B166" s="60" t="n">
         <f aca="false">'Id. + dados'!F80</f>
         <v>5</v>
       </c>
-      <c r="C166" s="57" t="n">
+      <c r="C166" s="60" t="n">
         <f aca="false">'Id. + dados'!G40</f>
         <v>6</v>
       </c>
@@ -8759,11 +8854,11 @@
       <c r="A167" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="B167" s="57" t="n">
+      <c r="B167" s="60" t="n">
         <f aca="false">'Id. + dados'!F81</f>
         <v>5</v>
       </c>
-      <c r="C167" s="57" t="n">
+      <c r="C167" s="60" t="n">
         <f aca="false">'Id. + dados'!G49</f>
         <v>6</v>
       </c>
@@ -8774,11 +8869,11 @@
       <c r="A168" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B168" s="57" t="n">
+      <c r="B168" s="60" t="n">
         <f aca="false">'Id. + dados'!F83</f>
         <v>5</v>
       </c>
-      <c r="C168" s="57" t="n">
+      <c r="C168" s="60" t="n">
         <f aca="false">'Id. + dados'!G76</f>
         <v>6</v>
       </c>
@@ -8789,11 +8884,11 @@
       <c r="A169" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B169" s="57" t="n">
+      <c r="B169" s="60" t="n">
         <f aca="false">'Id. + dados'!F85</f>
         <v>5</v>
       </c>
-      <c r="C169" s="57" t="n">
+      <c r="C169" s="60" t="n">
         <f aca="false">'Id. + dados'!G6</f>
         <v>7</v>
       </c>
@@ -8804,11 +8899,11 @@
       <c r="A170" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="B170" s="57" t="n">
+      <c r="B170" s="60" t="n">
         <f aca="false">'Id. + dados'!F88</f>
         <v>5</v>
       </c>
-      <c r="C170" s="57" t="n">
+      <c r="C170" s="60" t="n">
         <f aca="false">'Id. + dados'!G10</f>
         <v>7</v>
       </c>
@@ -8819,11 +8914,11 @@
       <c r="A171" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="B171" s="57" t="n">
+      <c r="B171" s="60" t="n">
         <f aca="false">'Id. + dados'!F92</f>
         <v>5</v>
       </c>
-      <c r="C171" s="57" t="n">
+      <c r="C171" s="60" t="n">
         <f aca="false">'Id. + dados'!G21</f>
         <v>7</v>
       </c>
@@ -8834,11 +8929,11 @@
       <c r="A172" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="B172" s="57" t="n">
+      <c r="B172" s="60" t="n">
         <f aca="false">'Id. + dados'!F93</f>
         <v>5</v>
       </c>
-      <c r="C172" s="57" t="n">
+      <c r="C172" s="60" t="n">
         <f aca="false">'Id. + dados'!G26</f>
         <v>7</v>
       </c>
@@ -8849,11 +8944,11 @@
       <c r="A173" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="B173" s="57" t="n">
+      <c r="B173" s="60" t="n">
         <f aca="false">'Id. + dados'!F12</f>
         <v>6</v>
       </c>
-      <c r="C173" s="57" t="n">
+      <c r="C173" s="60" t="n">
         <f aca="false">'Id. + dados'!G27</f>
         <v>7</v>
       </c>
@@ -8864,11 +8959,11 @@
       <c r="A174" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="B174" s="57" t="n">
+      <c r="B174" s="60" t="n">
         <f aca="false">'Id. + dados'!F14</f>
         <v>6</v>
       </c>
-      <c r="C174" s="57" t="n">
+      <c r="C174" s="60" t="n">
         <f aca="false">'Id. + dados'!G29</f>
         <v>7</v>
       </c>
@@ -8879,11 +8974,11 @@
       <c r="A175" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="B175" s="57" t="n">
+      <c r="B175" s="60" t="n">
         <f aca="false">'Id. + dados'!F20</f>
         <v>6</v>
       </c>
-      <c r="C175" s="57" t="n">
+      <c r="C175" s="60" t="n">
         <f aca="false">'Id. + dados'!G34</f>
         <v>7</v>
       </c>
@@ -8894,11 +8989,11 @@
       <c r="A176" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="B176" s="57" t="n">
+      <c r="B176" s="60" t="n">
         <f aca="false">'Id. + dados'!F21</f>
         <v>6</v>
       </c>
-      <c r="C176" s="57" t="n">
+      <c r="C176" s="60" t="n">
         <f aca="false">'Id. + dados'!G35</f>
         <v>7</v>
       </c>
@@ -8909,11 +9004,11 @@
       <c r="A177" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="B177" s="57" t="n">
+      <c r="B177" s="60" t="n">
         <f aca="false">'Id. + dados'!F22</f>
         <v>6</v>
       </c>
-      <c r="C177" s="57" t="n">
+      <c r="C177" s="60" t="n">
         <f aca="false">'Id. + dados'!G44</f>
         <v>7</v>
       </c>
@@ -8924,11 +9019,11 @@
       <c r="A178" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="B178" s="57" t="n">
+      <c r="B178" s="60" t="n">
         <f aca="false">'Id. + dados'!F25</f>
         <v>6</v>
       </c>
-      <c r="C178" s="57" t="n">
+      <c r="C178" s="60" t="n">
         <f aca="false">'Id. + dados'!G48</f>
         <v>7</v>
       </c>
@@ -8939,11 +9034,11 @@
       <c r="A179" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="B179" s="57" t="n">
+      <c r="B179" s="60" t="n">
         <f aca="false">'Id. + dados'!F32</f>
         <v>6</v>
       </c>
-      <c r="C179" s="57" t="n">
+      <c r="C179" s="60" t="n">
         <f aca="false">'Id. + dados'!G53</f>
         <v>7</v>
       </c>
@@ -8954,11 +9049,11 @@
       <c r="A180" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="B180" s="57" t="n">
+      <c r="B180" s="60" t="n">
         <f aca="false">'Id. + dados'!F33</f>
         <v>6</v>
       </c>
-      <c r="C180" s="57" t="n">
+      <c r="C180" s="60" t="n">
         <f aca="false">'Id. + dados'!G58</f>
         <v>7</v>
       </c>
@@ -8969,11 +9064,11 @@
       <c r="A181" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="B181" s="57" t="n">
+      <c r="B181" s="60" t="n">
         <f aca="false">'Id. + dados'!F38</f>
         <v>6</v>
       </c>
-      <c r="C181" s="57" t="n">
+      <c r="C181" s="60" t="n">
         <f aca="false">'Id. + dados'!G59</f>
         <v>7</v>
       </c>
@@ -8984,11 +9079,11 @@
       <c r="A182" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="B182" s="57" t="n">
+      <c r="B182" s="60" t="n">
         <f aca="false">'Id. + dados'!F46</f>
         <v>6</v>
       </c>
-      <c r="C182" s="57" t="n">
+      <c r="C182" s="60" t="n">
         <f aca="false">'Id. + dados'!G60</f>
         <v>7</v>
       </c>
@@ -8999,11 +9094,11 @@
       <c r="A183" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="B183" s="57" t="n">
+      <c r="B183" s="60" t="n">
         <f aca="false">'Id. + dados'!F51</f>
         <v>6</v>
       </c>
-      <c r="C183" s="57" t="n">
+      <c r="C183" s="60" t="n">
         <f aca="false">'Id. + dados'!G71</f>
         <v>7</v>
       </c>
@@ -9014,11 +9109,11 @@
       <c r="A184" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="B184" s="57" t="n">
+      <c r="B184" s="60" t="n">
         <f aca="false">'Id. + dados'!F52</f>
         <v>6</v>
       </c>
-      <c r="C184" s="57" t="n">
+      <c r="C184" s="60" t="n">
         <f aca="false">'Id. + dados'!G77</f>
         <v>7</v>
       </c>
@@ -9029,11 +9124,11 @@
       <c r="A185" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="B185" s="57" t="n">
+      <c r="B185" s="60" t="n">
         <f aca="false">'Id. + dados'!F53</f>
         <v>6</v>
       </c>
-      <c r="C185" s="57" t="n">
+      <c r="C185" s="60" t="n">
         <f aca="false">'Id. + dados'!G78</f>
         <v>7</v>
       </c>
@@ -9044,11 +9139,11 @@
       <c r="A186" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="B186" s="57" t="n">
+      <c r="B186" s="60" t="n">
         <f aca="false">'Id. + dados'!F57</f>
         <v>6</v>
       </c>
-      <c r="C186" s="57" t="n">
+      <c r="C186" s="60" t="n">
         <f aca="false">'Id. + dados'!G86</f>
         <v>7</v>
       </c>
@@ -9059,11 +9154,11 @@
       <c r="A187" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="B187" s="57" t="n">
+      <c r="B187" s="60" t="n">
         <f aca="false">'Id. + dados'!F65</f>
         <v>6</v>
       </c>
-      <c r="C187" s="57" t="n">
+      <c r="C187" s="60" t="n">
         <f aca="false">'Id. + dados'!G87</f>
         <v>7</v>
       </c>
@@ -9074,11 +9169,11 @@
       <c r="A188" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="B188" s="57" t="n">
+      <c r="B188" s="60" t="n">
         <f aca="false">'Id. + dados'!F71</f>
         <v>6</v>
       </c>
-      <c r="C188" s="57" t="n">
+      <c r="C188" s="60" t="n">
         <f aca="false">'Id. + dados'!G4</f>
         <v>8</v>
       </c>
@@ -9089,11 +9184,11 @@
       <c r="A189" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="B189" s="57" t="n">
+      <c r="B189" s="60" t="n">
         <f aca="false">'Id. + dados'!F8</f>
         <v>7</v>
       </c>
-      <c r="C189" s="57" t="n">
+      <c r="C189" s="60" t="n">
         <f aca="false">'Id. + dados'!G15</f>
         <v>8</v>
       </c>
@@ -9104,11 +9199,11 @@
       <c r="A190" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="B190" s="57" t="n">
+      <c r="B190" s="60" t="n">
         <f aca="false">'Id. + dados'!F27</f>
         <v>7</v>
       </c>
-      <c r="C190" s="57" t="n">
+      <c r="C190" s="60" t="n">
         <f aca="false">'Id. + dados'!G16</f>
         <v>8</v>
       </c>
@@ -9119,11 +9214,11 @@
       <c r="A191" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="B191" s="57" t="n">
+      <c r="B191" s="60" t="n">
         <f aca="false">'Id. + dados'!F31</f>
         <v>7</v>
       </c>
-      <c r="C191" s="57" t="n">
+      <c r="C191" s="60" t="n">
         <f aca="false">'Id. + dados'!G24</f>
         <v>8</v>
       </c>
@@ -9134,11 +9229,11 @@
       <c r="A192" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="B192" s="57" t="n">
+      <c r="B192" s="60" t="n">
         <f aca="false">'Id. + dados'!F35</f>
         <v>7</v>
       </c>
-      <c r="C192" s="57" t="n">
+      <c r="C192" s="60" t="n">
         <f aca="false">'Id. + dados'!G28</f>
         <v>8</v>
       </c>
@@ -9149,11 +9244,11 @@
       <c r="A193" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="B193" s="57" t="n">
+      <c r="B193" s="60" t="n">
         <f aca="false">'Id. + dados'!F40</f>
         <v>7</v>
       </c>
-      <c r="C193" s="57" t="n">
+      <c r="C193" s="60" t="n">
         <f aca="false">'Id. + dados'!G31</f>
         <v>8</v>
       </c>
@@ -9164,11 +9259,11 @@
       <c r="A194" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="B194" s="57" t="n">
+      <c r="B194" s="60" t="n">
         <f aca="false">'Id. + dados'!F43</f>
         <v>7</v>
       </c>
-      <c r="C194" s="57" t="n">
+      <c r="C194" s="60" t="n">
         <f aca="false">'Id. + dados'!G36</f>
         <v>8</v>
       </c>
@@ -9179,11 +9274,11 @@
       <c r="A195" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="B195" s="57" t="n">
+      <c r="B195" s="60" t="n">
         <f aca="false">'Id. + dados'!F47</f>
         <v>7</v>
       </c>
-      <c r="C195" s="57" t="n">
+      <c r="C195" s="60" t="n">
         <f aca="false">'Id. + dados'!G46</f>
         <v>8</v>
       </c>
@@ -9194,11 +9289,11 @@
       <c r="A196" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="B196" s="57" t="n">
+      <c r="B196" s="60" t="n">
         <f aca="false">'Id. + dados'!F49</f>
         <v>7</v>
       </c>
-      <c r="C196" s="57" t="n">
+      <c r="C196" s="60" t="n">
         <f aca="false">'Id. + dados'!G50</f>
         <v>8</v>
       </c>
@@ -9209,11 +9304,11 @@
       <c r="A197" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="B197" s="57" t="n">
+      <c r="B197" s="60" t="n">
         <f aca="false">'Id. + dados'!F59</f>
         <v>7</v>
       </c>
-      <c r="C197" s="57" t="n">
+      <c r="C197" s="60" t="n">
         <f aca="false">'Id. + dados'!G62</f>
         <v>8</v>
       </c>
@@ -9224,11 +9319,11 @@
       <c r="A198" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="B198" s="57" t="n">
+      <c r="B198" s="60" t="n">
         <f aca="false">'Id. + dados'!F76</f>
         <v>7</v>
       </c>
-      <c r="C198" s="57" t="n">
+      <c r="C198" s="60" t="n">
         <f aca="false">'Id. + dados'!G74</f>
         <v>8</v>
       </c>
@@ -9239,11 +9334,11 @@
       <c r="A199" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B199" s="57" t="n">
+      <c r="B199" s="60" t="n">
         <f aca="false">'Id. + dados'!F77</f>
         <v>7</v>
       </c>
-      <c r="C199" s="57" t="n">
+      <c r="C199" s="60" t="n">
         <f aca="false">'Id. + dados'!G75</f>
         <v>8</v>
       </c>
@@ -9254,11 +9349,11 @@
       <c r="A200" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="B200" s="57" t="n">
+      <c r="B200" s="60" t="n">
         <f aca="false">'Id. + dados'!F79</f>
         <v>7</v>
       </c>
-      <c r="C200" s="57" t="n">
+      <c r="C200" s="60" t="n">
         <f aca="false">'Id. + dados'!G79</f>
         <v>8</v>
       </c>
@@ -9269,11 +9364,11 @@
       <c r="A201" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="B201" s="57" t="n">
+      <c r="B201" s="60" t="n">
         <f aca="false">'Id. + dados'!F90</f>
         <v>7</v>
       </c>
-      <c r="C201" s="57" t="n">
+      <c r="C201" s="60" t="n">
         <f aca="false">'Id. + dados'!G83</f>
         <v>8</v>
       </c>
@@ -9284,11 +9379,11 @@
       <c r="A202" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="B202" s="57" t="n">
+      <c r="B202" s="60" t="n">
         <f aca="false">'Id. + dados'!F6</f>
         <v>8</v>
       </c>
-      <c r="C202" s="57" t="n">
+      <c r="C202" s="60" t="n">
         <f aca="false">'Id. + dados'!G88</f>
         <v>8</v>
       </c>
@@ -9299,11 +9394,11 @@
       <c r="A203" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="B203" s="57" t="n">
+      <c r="B203" s="60" t="n">
         <f aca="false">'Id. + dados'!F17</f>
         <v>8</v>
       </c>
-      <c r="C203" s="57" t="n">
+      <c r="C203" s="60" t="n">
         <f aca="false">'Id. + dados'!G8</f>
         <v>9</v>
       </c>
@@ -9314,11 +9409,11 @@
       <c r="A204" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="B204" s="57" t="n">
+      <c r="B204" s="60" t="n">
         <f aca="false">'Id. + dados'!F24</f>
         <v>8</v>
       </c>
-      <c r="C204" s="57" t="n">
+      <c r="C204" s="60" t="n">
         <f aca="false">'Id. + dados'!G12</f>
         <v>9</v>
       </c>
@@ -9329,11 +9424,11 @@
       <c r="A205" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="B205" s="57" t="n">
+      <c r="B205" s="60" t="n">
         <f aca="false">'Id. + dados'!F34</f>
         <v>8</v>
       </c>
-      <c r="C205" s="57" t="n">
+      <c r="C205" s="60" t="n">
         <f aca="false">'Id. + dados'!G25</f>
         <v>9</v>
       </c>
@@ -9344,11 +9439,11 @@
       <c r="A206" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="B206" s="57" t="n">
+      <c r="B206" s="60" t="n">
         <f aca="false">'Id. + dados'!F58</f>
         <v>8</v>
       </c>
-      <c r="C206" s="57" t="n">
+      <c r="C206" s="60" t="n">
         <f aca="false">'Id. + dados'!G39</f>
         <v>9</v>
       </c>
@@ -9359,11 +9454,11 @@
       <c r="A207" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="B207" s="57" t="n">
+      <c r="B207" s="60" t="n">
         <f aca="false">'Id. + dados'!F64</f>
         <v>8</v>
       </c>
-      <c r="C207" s="57" t="n">
+      <c r="C207" s="60" t="n">
         <f aca="false">'Id. + dados'!G43</f>
         <v>9</v>
       </c>
@@ -9374,11 +9469,11 @@
       <c r="A208" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="B208" s="57" t="n">
+      <c r="B208" s="60" t="n">
         <f aca="false">'Id. + dados'!F68</f>
         <v>8</v>
       </c>
-      <c r="C208" s="57" t="n">
+      <c r="C208" s="60" t="n">
         <f aca="false">'Id. + dados'!G47</f>
         <v>9</v>
       </c>
@@ -9389,11 +9484,11 @@
       <c r="A209" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="B209" s="57" t="n">
+      <c r="B209" s="60" t="n">
         <f aca="false">'Id. + dados'!F72</f>
         <v>8</v>
       </c>
-      <c r="C209" s="57" t="n">
+      <c r="C209" s="60" t="n">
         <f aca="false">'Id. + dados'!G89</f>
         <v>9</v>
       </c>
@@ -9404,11 +9499,11 @@
       <c r="A210" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="B210" s="57" t="n">
+      <c r="B210" s="60" t="n">
         <f aca="false">'Id. + dados'!F84</f>
         <v>8</v>
       </c>
-      <c r="C210" s="57" t="n">
+      <c r="C210" s="60" t="n">
         <f aca="false">'Id. + dados'!G90</f>
         <v>9</v>
       </c>
@@ -9419,11 +9514,11 @@
       <c r="A211" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="B211" s="57" t="n">
+      <c r="B211" s="60" t="n">
         <f aca="false">'Id. + dados'!F86</f>
         <v>8</v>
       </c>
-      <c r="C211" s="57" t="n">
+      <c r="C211" s="60" t="n">
         <f aca="false">'Id. + dados'!G19</f>
         <v>10</v>
       </c>
@@ -9434,11 +9529,11 @@
       <c r="A212" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="B212" s="57" t="n">
+      <c r="B212" s="60" t="n">
         <f aca="false">'Id. + dados'!F89</f>
         <v>8</v>
       </c>
-      <c r="C212" s="57" t="n">
+      <c r="C212" s="60" t="n">
         <f aca="false">'Id. + dados'!G30</f>
         <v>10</v>
       </c>
@@ -9449,11 +9544,11 @@
       <c r="A213" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="B213" s="57" t="n">
+      <c r="B213" s="60" t="n">
         <f aca="false">'Id. + dados'!F10</f>
         <v>9</v>
       </c>
-      <c r="C213" s="57" t="n">
+      <c r="C213" s="60" t="n">
         <f aca="false">'Id. + dados'!G32</f>
         <v>10</v>
       </c>
@@ -9464,11 +9559,11 @@
       <c r="A214" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="B214" s="57" t="n">
+      <c r="B214" s="60" t="n">
         <f aca="false">'Id. + dados'!F37</f>
         <v>9</v>
       </c>
-      <c r="C214" s="57" t="n">
+      <c r="C214" s="60" t="n">
         <f aca="false">'Id. + dados'!G45</f>
         <v>10</v>
       </c>
@@ -9479,11 +9574,11 @@
       <c r="A215" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="B215" s="57" t="n">
+      <c r="B215" s="60" t="n">
         <f aca="false">'Id. + dados'!F42</f>
         <v>9</v>
       </c>
-      <c r="C215" s="57" t="n">
+      <c r="C215" s="60" t="n">
         <f aca="false">'Id. + dados'!G66</f>
         <v>10</v>
       </c>
@@ -9494,11 +9589,11 @@
       <c r="A216" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="B216" s="57" t="n">
+      <c r="B216" s="60" t="n">
         <f aca="false">'Id. + dados'!F69</f>
         <v>9</v>
       </c>
-      <c r="C216" s="57" t="n">
+      <c r="C216" s="60" t="n">
         <f aca="false">'Id. + dados'!G67</f>
         <v>10</v>
       </c>
@@ -9509,11 +9604,11 @@
       <c r="A217" s="0" t="n">
         <v>78</v>
       </c>
-      <c r="B217" s="57" t="n">
+      <c r="B217" s="60" t="n">
         <f aca="false">'Id. + dados'!F73</f>
         <v>9</v>
       </c>
-      <c r="C217" s="57" t="n">
+      <c r="C217" s="60" t="n">
         <f aca="false">'Id. + dados'!G68</f>
         <v>10</v>
       </c>
@@ -9524,11 +9619,11 @@
       <c r="A218" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="B218" s="57" t="n">
+      <c r="B218" s="60" t="n">
         <f aca="false">'Id. + dados'!F82</f>
         <v>9</v>
       </c>
-      <c r="C218" s="57" t="n">
+      <c r="C218" s="60" t="n">
         <f aca="false">'Id. + dados'!G81</f>
         <v>10</v>
       </c>
@@ -9539,11 +9634,11 @@
       <c r="A219" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="B219" s="57" t="n">
+      <c r="B219" s="60" t="n">
         <f aca="false">'Id. + dados'!F19</f>
         <v>10</v>
       </c>
-      <c r="C219" s="57" t="n">
+      <c r="C219" s="60" t="n">
         <f aca="false">'Id. + dados'!G82</f>
         <v>10</v>
       </c>
@@ -9554,11 +9649,11 @@
       <c r="A220" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="B220" s="57" t="n">
+      <c r="B220" s="60" t="n">
         <f aca="false">'Id. + dados'!F28</f>
         <v>10</v>
       </c>
-      <c r="C220" s="57" t="n">
+      <c r="C220" s="60" t="n">
         <f aca="false">'Id. + dados'!G84</f>
         <v>10</v>
       </c>
@@ -9569,11 +9664,11 @@
       <c r="A221" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="B221" s="57" t="n">
+      <c r="B221" s="60" t="n">
         <f aca="false">'Id. + dados'!F48</f>
         <v>10</v>
       </c>
-      <c r="C221" s="57" t="n">
+      <c r="C221" s="60" t="n">
         <f aca="false">'Id. + dados'!G91</f>
         <v>10</v>
       </c>
@@ -9584,11 +9679,11 @@
       <c r="A222" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="B222" s="57" t="n">
+      <c r="B222" s="60" t="n">
         <f aca="false">'Id. + dados'!F60</f>
         <v>10</v>
       </c>
-      <c r="C222" s="57" t="n">
+      <c r="C222" s="60" t="n">
         <f aca="false">'Id. + dados'!G9</f>
         <v>11</v>
       </c>
@@ -9599,11 +9694,11 @@
       <c r="A223" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="B223" s="57" t="n">
+      <c r="B223" s="60" t="n">
         <f aca="false">'Id. + dados'!F66</f>
         <v>10</v>
       </c>
-      <c r="C223" s="57" t="n">
+      <c r="C223" s="60" t="n">
         <f aca="false">'Id. + dados'!G61</f>
         <v>11</v>
       </c>
@@ -9614,11 +9709,11 @@
       <c r="A224" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="B224" s="57" t="n">
+      <c r="B224" s="60" t="n">
         <f aca="false">'Id. + dados'!F18</f>
         <v>11</v>
       </c>
-      <c r="C224" s="57" t="n">
+      <c r="C224" s="60" t="n">
         <f aca="false">'Id. + dados'!G70</f>
         <v>11</v>
       </c>
@@ -9629,11 +9724,11 @@
       <c r="A225" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="B225" s="57" t="n">
+      <c r="B225" s="60" t="n">
         <f aca="false">'Id. + dados'!F30</f>
         <v>11</v>
       </c>
-      <c r="C225" s="57" t="n">
+      <c r="C225" s="60" t="n">
         <f aca="false">'Id. + dados'!G56</f>
         <v>12</v>
       </c>
@@ -9644,11 +9739,11 @@
       <c r="A226" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="B226" s="57" t="n">
+      <c r="B226" s="60" t="n">
         <f aca="false">'Id. + dados'!F67</f>
         <v>11</v>
       </c>
-      <c r="C226" s="57" t="n">
+      <c r="C226" s="60" t="n">
         <f aca="false">'Id. + dados'!G65</f>
         <v>12</v>
       </c>
@@ -9659,11 +9754,11 @@
       <c r="A227" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="B227" s="57" t="n">
+      <c r="B227" s="60" t="n">
         <f aca="false">'Id. + dados'!F78</f>
         <v>11</v>
       </c>
-      <c r="C227" s="57" t="n">
+      <c r="C227" s="60" t="n">
         <f aca="false">'Id. + dados'!G41</f>
         <v>13</v>
       </c>
@@ -9674,11 +9769,11 @@
       <c r="A228" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="B228" s="57" t="n">
+      <c r="B228" s="60" t="n">
         <f aca="false">'Id. + dados'!F45</f>
         <v>13</v>
       </c>
-      <c r="C228" s="57" t="n">
+      <c r="C228" s="60" t="n">
         <f aca="false">'Id. + dados'!G33</f>
         <v>15</v>
       </c>
@@ -9689,11 +9784,11 @@
       <c r="A229" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="B229" s="57" t="n">
+      <c r="B229" s="60" t="n">
         <f aca="false">'Id. + dados'!F13</f>
         <v>14</v>
       </c>
-      <c r="C229" s="57" t="n">
+      <c r="C229" s="60" t="n">
         <f aca="false">'Id. + dados'!G13</f>
         <v>16</v>
       </c>
@@ -9702,71 +9797,71 @@
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B231" s="48" t="n">
+      <c r="B231" s="50" t="n">
         <f aca="false">SUM(B140:B229)</f>
         <v>595</v>
       </c>
-      <c r="C231" s="48" t="n">
+      <c r="C231" s="50" t="n">
         <f aca="false">SUM(C140:C229)</f>
         <v>676</v>
       </c>
       <c r="H231" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H232" s="48" t="n">
+      <c r="H232" s="50" t="n">
         <f aca="false">SKEW(B140:B229)</f>
         <v>0.745533148001384</v>
       </c>
-      <c r="I232" s="48" t="n">
+      <c r="I232" s="50" t="n">
         <f aca="false">SKEW(C140:C229)</f>
         <v>0.676593505895628</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B234" s="48" t="n">
+      <c r="B234" s="50" t="n">
         <f aca="false">AVERAGE(B140:B229)</f>
         <v>6.61111111111111</v>
       </c>
-      <c r="C234" s="48" t="n">
+      <c r="C234" s="50" t="n">
         <f aca="false">AVERAGE(C140:C229)</f>
         <v>7.51111111111111</v>
       </c>
       <c r="H234" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H235" s="48" t="n">
+      <c r="H235" s="50" t="n">
         <f aca="false">KURT(B140:B229)</f>
         <v>0.497891756582736</v>
       </c>
-      <c r="I235" s="48" t="n">
+      <c r="I235" s="50" t="n">
         <f aca="false">KURT(C140:C229)</f>
         <v>1.01076278601491</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B237" s="48" t="n">
+      <c r="B237" s="50" t="n">
         <f aca="false">STDEV(B140:B229)</f>
         <v>2.31115732691714</v>
       </c>
-      <c r="C237" s="48" t="n">
+      <c r="C237" s="50" t="n">
         <f aca="false">_xlfn.STDEV.S(C140:C229)</f>
         <v>2.51398088201881</v>
       </c>
